--- a/data_processing/pew/pewQVDict.xlsx
+++ b/data_processing/pew/pewQVDict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalie_kraft/Documents/LAS/bridash/data_processing/pew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C1092A-0C0E-9E4F-8FD0-4EA42BA88D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA372E-37AF-994C-BDF9-0FF63FE9DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37280" yWindow="-20840" windowWidth="34640" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36500" yWindow="-16260" windowWidth="34640" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2019" sheetId="2" r:id="rId3"/>
     <sheet name="2018" sheetId="3" r:id="rId4"/>
     <sheet name="2017" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="variable_sorting" sheetId="6" r:id="rId6"/>
     <sheet name="Final Variable Listing" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -28,12 +28,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020'!$A$1:$C$227</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021'!$A$1:$D$258</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5971" uniqueCount="4131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="4208">
   <si>
     <t>variable_name</t>
   </si>
@@ -12379,9 +12390,6 @@
     <t>Overall, are you satisfied or dissatisfied with the way things are going in our country today?</t>
   </si>
   <si>
-    <t>Overall, how  satisfied are you  with the way things are going in our country today?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How much confidence you have in Putin  to do the right thing regarding world affairs? </t>
   </si>
   <si>
@@ -12433,19 +12441,253 @@
     <t>Unique ID for all Respondent's</t>
   </si>
   <si>
-    <t>Is it more important for (survey country) to have strong economic ties with China or the United States?</t>
-  </si>
-  <si>
-    <t>What is the world's leading economic power?</t>
-  </si>
-  <si>
-    <t>I am _____ to China</t>
-  </si>
-  <si>
-    <t>I am _____ to the United States</t>
-  </si>
-  <si>
-    <t>I am _____ to Russia</t>
+    <t>How important is religion in your life?</t>
+  </si>
+  <si>
+    <t>Does the government of China respects the personal freedoms of its people?</t>
+  </si>
+  <si>
+    <t>Does the government of the US respects the personal freedoms of its people?</t>
+  </si>
+  <si>
+    <t>world_role_china</t>
+  </si>
+  <si>
+    <t>involved_us</t>
+  </si>
+  <si>
+    <t>long_question</t>
+  </si>
+  <si>
+    <t>econ_power: What is the world's leading economic power?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ_sit: Describe the current economic situation in (survey country) </t>
+  </si>
+  <si>
+    <t>us_or_china: Is it more important for (survey country) to have strong economic ties with China or the United States?</t>
+  </si>
+  <si>
+    <t>children_betteroff: When children today in (survey country) grow up, do you think they will be better off or worse off financially than their parents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fav_us: I am _____ to  the U.S. </t>
+  </si>
+  <si>
+    <t>fav_china: I am _____  to  China</t>
+  </si>
+  <si>
+    <t>fav_russia: I am _____  to  Russia</t>
+  </si>
+  <si>
+    <t>satisfied_democracy: How satisfied are you with the way democracy is working in our country?</t>
+  </si>
+  <si>
+    <t>country_satis: How satisfied are you with the way things are going in our country today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confid_uspres: How much confidence you have in the U.S. President to do the right thing regarding world affairs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confid_xi: How much confidence you have in Xi to do the right thing regarding world affairs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confid_putin: How much confidence you have in Putin  to do the right thing regarding world affairs? </t>
+  </si>
+  <si>
+    <t>respect_china: Does the government of China respects the personal freedoms of its people?</t>
+  </si>
+  <si>
+    <t>respect_us: Does the government of the US respects the personal freedoms of its people?</t>
+  </si>
+  <si>
+    <t>global_trade: Is trade and business ties between (survey country) and other countries a good thing or a bad thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>global_movement: Is the movement of people between (survey country) and other countries a good thing or a bad thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>global_information: Is the availability of news and information from other countries a good thing or a bad thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>china_taiwan: Are tensions between China and Taiwan  a serious problem?</t>
+  </si>
+  <si>
+    <t>us_def_china: If (survey country) and China got into a serious military conflict, do you think that the United States would use military force to defend our country?</t>
+  </si>
+  <si>
+    <t>usrel_betterworse: How have relations between (survey country) and the U.S. changed over the past year?</t>
+  </si>
+  <si>
+    <t>involved_us: Is the U.S. helping to address major global problems?</t>
+  </si>
+  <si>
+    <t>interest_surveycountry: In making international policy decisions, to what extent do you think the U.S. takes into account the interests of (survey country)?</t>
+  </si>
+  <si>
+    <t>econ_ties_china: Describe current economic ties between (survey country) and China.</t>
+  </si>
+  <si>
+    <t>econ_ties_us: Describe current economic ties between (survey country) and the U.S.</t>
+  </si>
+  <si>
+    <t>foreign_allies: What country can (survey country) most rely on as a dependable ally in the future?</t>
+  </si>
+  <si>
+    <t>foreign_threats: What country or group poses the greatest threat to (survey country) in the future?</t>
+  </si>
+  <si>
+    <t>foreigncom_buy: How do foreign companies buying (survey country) companies impact (survey country)?</t>
+  </si>
+  <si>
+    <t>foreigncom_new: How do foreign companies building new factories impact (survey country)?</t>
+  </si>
+  <si>
+    <t>china_invest: How do you view investment from China?</t>
+  </si>
+  <si>
+    <t>future_usrel: How do you feel about (survey country)  relations with the U.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">russia_relationship: Is it more important to have a close relationship to Russia or to the U.S.? </t>
+  </si>
+  <si>
+    <t>us_mil_asia: How has the U.S. military presence in the Asia-Pacific region affected the (survey country)?</t>
+  </si>
+  <si>
+    <t>china_us_enemy: Do you think of China as a partner, competitor or enemy of the U.S.?</t>
+  </si>
+  <si>
+    <t>econsys_reform: Do you think that the economic system of (survey country) needs to be reformed?</t>
+  </si>
+  <si>
+    <t>survey year - parsed from Pew</t>
+  </si>
+  <si>
+    <t>Respondent country (parsed from Pew for 2021)</t>
+  </si>
+  <si>
+    <t>Unique ID for respondent's within the same survey year</t>
+  </si>
+  <si>
+    <t>Respondent's location - varies per year which administrative boundary was collected</t>
+  </si>
+  <si>
+    <t>Q23. Today, which ONE of the following do you think is the world’s leading economic power? (dummy variables created)</t>
+  </si>
+  <si>
+    <t>Q34. Is it more important for (survey country) to have strong economic ties with China or the United States? (dummy variables created)</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>china_jobloss: Is the loss of U.S. jobs to China a serious problem?</t>
+  </si>
+  <si>
+    <t>china_deficit: Is the U.S. trade deficit with China a serious problem?</t>
+  </si>
+  <si>
+    <t>china_environ: Is China's impact on the global environment a serious problem?</t>
+  </si>
+  <si>
+    <t>china_debt: Is  the large amount of American debt that is held by China a serious problem?</t>
+  </si>
+  <si>
+    <t>china_terrdisputes: Are territorial disputes between China and neighboring countries a serious problem?</t>
+  </si>
+  <si>
+    <t>china_econ_military: Does China's economic or military strength concern you more?</t>
+  </si>
+  <si>
+    <t>us_world_role: How does the U.S.'s role today compare to their role as a world leader 10 years ago?</t>
+  </si>
+  <si>
+    <t>world_role_china: How does China's role today compare to their role as a world leader 10 years ago?</t>
+  </si>
+  <si>
+    <t>world_role_russia: How does Russia's role today compare to their role as a world leader 10 years ago?</t>
+  </si>
+  <si>
+    <t>influaffairs_russia: Do you think Russia tries to influence the internal affairs of other countries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the U.S.'s power and influence a threat to your country? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is China's power and influence a threat to your country? </t>
+  </si>
+  <si>
+    <t>intthreat_uspower</t>
+  </si>
+  <si>
+    <t>china_tough_econ: Is it more important to be tough on China's territorial disputes or build a strong economic relationship with them?</t>
+  </si>
+  <si>
+    <t>russia_threat: Is Russia's power and influence a threat to your country?</t>
+  </si>
+  <si>
+    <t>us_influence: How much influence does the U.S. exert on other countries?</t>
+  </si>
+  <si>
+    <t>china_influence: How much influence does the China exert on other countries?</t>
+  </si>
+  <si>
+    <t>china_threat: Is China's power and influence a threat to your country?</t>
+  </si>
+  <si>
+    <t>us_threat: Is the U.S.'s power and influence a threat to your country?</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>polsys_reform: Do you think that the political system of (survey country) needs to be reformed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion_import: How important is religion in your life? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you expect the economic condition to change in the next 12 months? </t>
+  </si>
+  <si>
+    <t>Is the condition of the global economy a threat to your country?</t>
+  </si>
+  <si>
+    <t>intthreat_econcondition: Is the condition of the global economy a threat to your country?</t>
+  </si>
+  <si>
+    <t>improve_econ: How do you expect the economic condition to change in the next 12 months?</t>
+  </si>
+  <si>
+    <t>How would you describe your relationship with the U.S.?</t>
+  </si>
+  <si>
+    <t>us_relationship: How would you describe your relationship with the U.S.?</t>
+  </si>
+  <si>
+    <t>us_relationship</t>
+  </si>
+  <si>
+    <t>Q18. In general, how reliable is the United States as a partner to (survey public)? Is the United States very reliable, somewhat reliable, not too reliable or not at all reliable as a partner? And Q36. In general, how would you describe relations today between the United States and (survey country)? Would you say they are very good, somewhat good, somewhat bad or very bad?</t>
+  </si>
+  <si>
+    <t>Do you think that China’s growing economy is a good thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>Do you think that China’s growing military power is a good thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>china_econ: Do you think that China’s growing economy is a good thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>china_military: Do you think that China’s growing military power is a good thing for (survey country)?</t>
+  </si>
+  <si>
+    <t>econ_ties_usch</t>
+  </si>
+  <si>
+    <t>econ_ties_usch: How do you view current economic ties between the U.S. and China?</t>
   </si>
 </sst>
 </file>
@@ -12675,7 +12917,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12752,6 +12994,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12764,7 +13009,1037 @@
     <cellStyle name="style1653674313118" xfId="7" xr:uid="{9BCB1D19-D975-B94E-A914-38E36B84D20C}"/>
     <cellStyle name="style1653674313702" xfId="8" xr:uid="{3E7AD95F-8CB5-1643-BD70-9D2DF7B58AF9}"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="308">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -13052,26 +14327,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15171,8 +16426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFDCDBA-9437-2A4B-99A0-9034E1D786F7}">
   <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17338,34 +18593,34 @@
   </sheetData>
   <autoFilter ref="A1:D258" xr:uid="{ADFDCDBA-9437-2A4B-99A0-9034E1D786F7}"/>
   <conditionalFormatting sqref="A1:XFD41 A43:XFD43 A44:C44 E44:XFD44 A267:XFD1048576 A45:XFD264">
-    <cfRule type="expression" dxfId="206" priority="7">
+    <cfRule type="expression" dxfId="307" priority="7">
       <formula>$C1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="8">
+    <cfRule type="expression" dxfId="306" priority="8">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="204" priority="11">
+    <cfRule type="expression" dxfId="305" priority="11">
       <formula>$D42="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="12">
+    <cfRule type="expression" dxfId="304" priority="12">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="303" priority="1">
       <formula>$C42="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="2">
+    <cfRule type="expression" dxfId="302" priority="2">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42 E42:XFD42">
-    <cfRule type="expression" dxfId="200" priority="15">
+    <cfRule type="expression" dxfId="301" priority="15">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="16">
+    <cfRule type="expression" dxfId="300" priority="16">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19287,15 +20542,15 @@
   </sheetData>
   <autoFilter ref="A1:C227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="198" priority="2">
+    <cfRule type="expression" dxfId="299" priority="2">
       <formula>$C1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="298" priority="3">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="297" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19309,7 +20564,7 @@
   <dimension ref="A1:C608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24320,17 +25575,17 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:XFD520 A523:XFD1048576 C521:XFD521">
-    <cfRule type="expression" dxfId="195" priority="1">
+    <cfRule type="expression" dxfId="296" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D522:XFD522 A522:B522 C521">
-    <cfRule type="expression" dxfId="194" priority="19">
+    <cfRule type="expression" dxfId="295" priority="19">
       <formula>$C520="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A521:B521">
-    <cfRule type="expression" dxfId="193" priority="20">
+    <cfRule type="expression" dxfId="294" priority="20">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29055,7 +30310,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="192" priority="1">
+    <cfRule type="expression" dxfId="293" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36284,7 +37539,7 @@
   </sheetData>
   <autoFilter ref="A1:C876" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="191" priority="1">
+    <cfRule type="expression" dxfId="292" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36296,8 +37551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27A6F3-B77E-E049-A088-959F2A51340A}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="C38" zoomScale="104" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37230,7 +38485,7 @@
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="17" t="s">
         <v>4058</v>
       </c>
     </row>
@@ -37275,7 +38530,7 @@
       <c r="J33" s="19" t="s">
         <v>3071</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="26" t="s">
         <v>4039</v>
       </c>
       <c r="M33" s="10" t="s">
@@ -37295,7 +38550,7 @@
       <c r="H34" s="19" t="s">
         <v>2164</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="26" t="s">
         <v>4040</v>
       </c>
       <c r="M34" s="10" t="s">
@@ -37322,7 +38577,7 @@
       <c r="J35" s="19" t="s">
         <v>3072</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="26" t="s">
         <v>4041</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -37343,7 +38598,7 @@
       <c r="J36" s="19" t="s">
         <v>3073</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="26" t="s">
         <v>4042</v>
       </c>
     </row>
@@ -37362,7 +38617,7 @@
       <c r="J37" s="19" t="s">
         <v>3357</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="26" t="s">
         <v>4044</v>
       </c>
       <c r="M37" s="10" t="s">
@@ -37377,7 +38632,7 @@
       <c r="J38" s="19" t="s">
         <v>3092</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="26" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -37388,7 +38643,7 @@
       <c r="J39" s="19" t="s">
         <v>3093</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="26" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -37400,7 +38655,7 @@
       <c r="J40" s="19" t="s">
         <v>3095</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="26" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -37414,7 +38669,7 @@
       <c r="J41" s="19" t="s">
         <v>3096</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="26" t="s">
         <v>2524</v>
       </c>
     </row>
@@ -37428,7 +38683,7 @@
       <c r="J42" s="19" t="s">
         <v>3125</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="26" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -37440,7 +38695,7 @@
       <c r="J43" s="19" t="s">
         <v>3126</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="26" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -37451,7 +38706,7 @@
       <c r="J44" s="19" t="s">
         <v>3128</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="26" t="s">
         <v>1612</v>
       </c>
     </row>
@@ -37462,7 +38717,7 @@
       <c r="J45" s="19" t="s">
         <v>3129</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="26" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -37473,7 +38728,7 @@
       <c r="J46" s="19" t="s">
         <v>3130</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="26" t="s">
         <v>1614</v>
       </c>
     </row>
@@ -37484,7 +38739,7 @@
       <c r="J47" s="19" t="s">
         <v>3131</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="26" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -37495,7 +38750,7 @@
       <c r="J48" s="19" t="s">
         <v>3158</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="26" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -37515,7 +38770,7 @@
       <c r="J49" s="19" t="s">
         <v>3157</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="26" t="s">
         <v>4054</v>
       </c>
     </row>
@@ -37527,7 +38782,7 @@
       <c r="H50" s="19" t="s">
         <v>2070</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="26" t="s">
         <v>4055</v>
       </c>
     </row>
@@ -37539,7 +38794,7 @@
       <c r="H51" s="19" t="s">
         <v>2071</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="26" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -37551,7 +38806,7 @@
       <c r="H52" s="19" t="s">
         <v>2072</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="26" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -37565,7 +38820,7 @@
       <c r="H53" s="19" t="s">
         <v>2100</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="26" t="s">
         <v>4053</v>
       </c>
     </row>
@@ -37580,7 +38835,7 @@
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="19"/>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="26" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -37594,7 +38849,7 @@
       <c r="H55" s="19" t="s">
         <v>2163</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="26" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -37609,7 +38864,7 @@
       <c r="H56" s="19" t="s">
         <v>2102</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="26" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -37949,7 +39204,7 @@
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="26" t="s">
-        <v>106</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -37972,621 +39227,621 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:J10 C11:D11 C13:D15 C37:D37 C74:D77 K76:K77 C3:D8 C18:D22 C25:D26">
-    <cfRule type="expression" dxfId="190" priority="71">
+    <cfRule type="expression" dxfId="291" priority="71">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="189" priority="68">
+    <cfRule type="expression" dxfId="290" priority="68">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="188" priority="62">
+    <cfRule type="expression" dxfId="289" priority="62">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="63">
+    <cfRule type="expression" dxfId="288" priority="63">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="186" priority="64">
+    <cfRule type="expression" dxfId="287" priority="64">
       <formula>$C15="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="65">
+    <cfRule type="expression" dxfId="286" priority="65">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:J25">
-    <cfRule type="expression" dxfId="184" priority="83">
+    <cfRule type="expression" dxfId="285" priority="83">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="expression" dxfId="183" priority="85">
+    <cfRule type="expression" dxfId="284" priority="85">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12 A4:B4 A8:B8">
-    <cfRule type="expression" dxfId="182" priority="104">
+    <cfRule type="expression" dxfId="283" priority="104">
       <formula>$C3="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="105">
+    <cfRule type="expression" dxfId="282" priority="105">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B9 A13:B14 A21:B21 A5:B6">
-    <cfRule type="expression" dxfId="180" priority="106">
+    <cfRule type="expression" dxfId="281" priority="106">
       <formula>$C5="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="107">
+    <cfRule type="expression" dxfId="280" priority="107">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11 E13:H13 I35:J35 J73">
-    <cfRule type="expression" dxfId="178" priority="112">
+    <cfRule type="expression" dxfId="279" priority="112">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4">
-    <cfRule type="expression" dxfId="177" priority="115">
+    <cfRule type="expression" dxfId="278" priority="115">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19 E5:H6 E27:F27 I27:J28 E35:F35 E33:F33 E32:H32 G34:H34 I54:J54 I37:J37 I71 I43:J49 G55:H65 G49:H49 E7:F8 E21:F21">
-    <cfRule type="expression" dxfId="176" priority="125">
+    <cfRule type="expression" dxfId="277" priority="125">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:H12">
-    <cfRule type="expression" dxfId="175" priority="141">
+    <cfRule type="expression" dxfId="276" priority="141">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:K26">
-    <cfRule type="expression" dxfId="174" priority="145">
+    <cfRule type="expression" dxfId="275" priority="145">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J4">
-    <cfRule type="expression" dxfId="173" priority="158">
+    <cfRule type="expression" dxfId="274" priority="158">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:J16">
-    <cfRule type="expression" dxfId="172" priority="163">
+    <cfRule type="expression" dxfId="273" priority="163">
       <formula>$C11="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:H17 G24:H24">
-    <cfRule type="expression" dxfId="171" priority="164">
+    <cfRule type="expression" dxfId="272" priority="164">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="170" priority="166">
+    <cfRule type="expression" dxfId="271" priority="166">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:J15 J71">
-    <cfRule type="expression" dxfId="169" priority="199">
+    <cfRule type="expression" dxfId="270" priority="199">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="168" priority="202">
+    <cfRule type="expression" dxfId="269" priority="202">
       <formula>$C18="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="203">
+    <cfRule type="expression" dxfId="268" priority="203">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:F72">
-    <cfRule type="expression" dxfId="166" priority="207">
+    <cfRule type="expression" dxfId="267" priority="207">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F42">
-    <cfRule type="expression" dxfId="165" priority="242">
+    <cfRule type="expression" dxfId="266" priority="242">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J8">
-    <cfRule type="expression" dxfId="164" priority="250">
+    <cfRule type="expression" dxfId="265" priority="250">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J23">
-    <cfRule type="expression" dxfId="163" priority="259">
+    <cfRule type="expression" dxfId="264" priority="259">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J42">
-    <cfRule type="expression" dxfId="162" priority="283">
+    <cfRule type="expression" dxfId="263" priority="283">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J21">
-    <cfRule type="expression" dxfId="161" priority="302">
+    <cfRule type="expression" dxfId="262" priority="302">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="expression" dxfId="160" priority="307">
+    <cfRule type="expression" dxfId="261" priority="307">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="159" priority="309">
+    <cfRule type="expression" dxfId="260" priority="309">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J31">
-    <cfRule type="expression" dxfId="158" priority="321">
+    <cfRule type="expression" dxfId="259" priority="321">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H54">
-    <cfRule type="expression" dxfId="157" priority="336">
+    <cfRule type="expression" dxfId="258" priority="336">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:J20">
-    <cfRule type="expression" dxfId="156" priority="338">
+    <cfRule type="expression" dxfId="257" priority="338">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F34 E28:F28">
-    <cfRule type="expression" dxfId="155" priority="339">
+    <cfRule type="expression" dxfId="256" priority="339">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="154" priority="352">
+    <cfRule type="expression" dxfId="255" priority="352">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="353">
+    <cfRule type="expression" dxfId="254" priority="353">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="152" priority="366">
+    <cfRule type="expression" dxfId="253" priority="366">
       <formula>$C25="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="367">
+    <cfRule type="expression" dxfId="252" priority="367">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:H11 I12:J12">
-    <cfRule type="expression" dxfId="150" priority="369">
+    <cfRule type="expression" dxfId="251" priority="369">
       <formula>$C25="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="149" priority="377">
+    <cfRule type="expression" dxfId="250" priority="377">
       <formula>$C26="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="148" priority="378">
+    <cfRule type="expression" dxfId="249" priority="378">
       <formula>$C26="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="379">
+    <cfRule type="expression" dxfId="248" priority="379">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="146" priority="381">
+    <cfRule type="expression" dxfId="247" priority="381">
       <formula>$C20="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20 E22:F22">
-    <cfRule type="expression" dxfId="145" priority="382">
+    <cfRule type="expression" dxfId="246" priority="382">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="144" priority="389">
+    <cfRule type="expression" dxfId="245" priority="389">
       <formula>$C20="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="390">
+    <cfRule type="expression" dxfId="244" priority="390">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="142" priority="398">
+    <cfRule type="expression" dxfId="243" priority="398">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="expression" dxfId="141" priority="416">
+    <cfRule type="expression" dxfId="242" priority="416">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:J18">
-    <cfRule type="expression" dxfId="140" priority="417">
+    <cfRule type="expression" dxfId="241" priority="417">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="expression" dxfId="139" priority="430">
+    <cfRule type="expression" dxfId="240" priority="430">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="138" priority="473">
+    <cfRule type="expression" dxfId="239" priority="473">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="137" priority="53">
+    <cfRule type="expression" dxfId="238" priority="53">
       <formula>$C29="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="54">
+    <cfRule type="expression" dxfId="237" priority="54">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:B78">
-    <cfRule type="expression" dxfId="135" priority="51">
+    <cfRule type="expression" dxfId="236" priority="51">
       <formula>$C57="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="52">
+    <cfRule type="expression" dxfId="235" priority="52">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K10">
-    <cfRule type="expression" dxfId="133" priority="48">
+    <cfRule type="expression" dxfId="234" priority="48">
       <formula>$C9="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="132" priority="49">
+    <cfRule type="expression" dxfId="233" priority="49">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="131" priority="50">
+    <cfRule type="expression" dxfId="232" priority="50">
       <formula>$C26="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="130" priority="45">
+    <cfRule type="expression" dxfId="231" priority="45">
       <formula>$C11="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="expression" dxfId="129" priority="46">
+    <cfRule type="expression" dxfId="230" priority="46">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="128" priority="43">
+    <cfRule type="expression" dxfId="229" priority="43">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="127" priority="44">
+    <cfRule type="expression" dxfId="228" priority="44">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="126" priority="41">
+    <cfRule type="expression" dxfId="227" priority="41">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="125" priority="38">
+    <cfRule type="expression" dxfId="226" priority="38">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="124" priority="36">
+    <cfRule type="expression" dxfId="225" priority="36">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="123" priority="34">
+    <cfRule type="expression" dxfId="224" priority="34">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H23">
-    <cfRule type="expression" dxfId="122" priority="508">
+    <cfRule type="expression" dxfId="223" priority="508">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="121" priority="509">
+    <cfRule type="expression" dxfId="222" priority="509">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:J39">
-    <cfRule type="expression" dxfId="120" priority="510">
+    <cfRule type="expression" dxfId="221" priority="510">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="119" priority="512">
+    <cfRule type="expression" dxfId="220" priority="512">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F19">
-    <cfRule type="expression" dxfId="118" priority="513">
+    <cfRule type="expression" dxfId="219" priority="513">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B59">
-    <cfRule type="expression" dxfId="117" priority="514">
+    <cfRule type="expression" dxfId="218" priority="514">
       <formula>$C4="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="515">
+    <cfRule type="expression" dxfId="217" priority="515">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J41">
-    <cfRule type="expression" dxfId="115" priority="516">
+    <cfRule type="expression" dxfId="216" priority="516">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H51">
-    <cfRule type="expression" dxfId="114" priority="517">
+    <cfRule type="expression" dxfId="215" priority="517">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K24">
-    <cfRule type="expression" dxfId="113" priority="520">
+    <cfRule type="expression" dxfId="214" priority="520">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:F66">
-    <cfRule type="expression" dxfId="112" priority="523">
+    <cfRule type="expression" dxfId="213" priority="523">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:F75">
-    <cfRule type="expression" dxfId="111" priority="525">
+    <cfRule type="expression" dxfId="212" priority="525">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F74">
-    <cfRule type="expression" dxfId="110" priority="526">
+    <cfRule type="expression" dxfId="211" priority="526">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:K22">
-    <cfRule type="expression" dxfId="109" priority="527">
+    <cfRule type="expression" dxfId="210" priority="527">
       <formula>$C6="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8">
-    <cfRule type="expression" dxfId="108" priority="33">
+    <cfRule type="expression" dxfId="209" priority="33">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="107" priority="528">
+    <cfRule type="expression" dxfId="208" priority="528">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="106" priority="529">
+    <cfRule type="expression" dxfId="207" priority="529">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="530">
+    <cfRule type="expression" dxfId="206" priority="530">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:B53">
-    <cfRule type="expression" dxfId="104" priority="531">
+    <cfRule type="expression" dxfId="205" priority="531">
       <formula>$C32="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="532">
+    <cfRule type="expression" dxfId="204" priority="532">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H36">
-    <cfRule type="expression" dxfId="102" priority="533">
+    <cfRule type="expression" dxfId="203" priority="533">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="101" priority="534">
+    <cfRule type="expression" dxfId="202" priority="534">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="100" priority="541">
+    <cfRule type="expression" dxfId="201" priority="541">
       <formula>$C37="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="542">
+    <cfRule type="expression" dxfId="200" priority="542">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:F69 K69">
-    <cfRule type="expression" dxfId="98" priority="544">
+    <cfRule type="expression" dxfId="199" priority="544">
       <formula>$C75="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="97" priority="545">
+    <cfRule type="expression" dxfId="198" priority="545">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:F73">
-    <cfRule type="expression" dxfId="96" priority="552">
+    <cfRule type="expression" dxfId="197" priority="552">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:F68">
-    <cfRule type="expression" dxfId="95" priority="554">
+    <cfRule type="expression" dxfId="196" priority="554">
       <formula>$C20="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="expression" dxfId="94" priority="556">
+    <cfRule type="expression" dxfId="195" priority="556">
       <formula>$C37="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="93" priority="600">
+    <cfRule type="expression" dxfId="194" priority="600">
       <formula>$C56="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="92" priority="10">
+    <cfRule type="expression" dxfId="193" priority="10">
       <formula>$C25="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="91" priority="20">
+    <cfRule type="expression" dxfId="192" priority="20">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="expression" dxfId="90" priority="22">
+    <cfRule type="expression" dxfId="191" priority="22">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73">
-    <cfRule type="expression" dxfId="89" priority="23">
+    <cfRule type="expression" dxfId="190" priority="23">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="88" priority="27">
+    <cfRule type="expression" dxfId="189" priority="27">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="188" priority="11">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="86" priority="12">
+    <cfRule type="expression" dxfId="187" priority="12">
       <formula>$C6="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="expression" dxfId="85" priority="13">
+    <cfRule type="expression" dxfId="186" priority="13">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="84" priority="14">
+    <cfRule type="expression" dxfId="185" priority="14">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="expression" dxfId="83" priority="17">
+    <cfRule type="expression" dxfId="184" priority="17">
       <formula>$C23="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="82" priority="18">
+    <cfRule type="expression" dxfId="183" priority="18">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="expression" dxfId="81" priority="19">
+    <cfRule type="expression" dxfId="182" priority="19">
       <formula>$C38="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K65">
-    <cfRule type="expression" dxfId="80" priority="8">
+    <cfRule type="expression" dxfId="181" priority="8">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="79" priority="9">
+    <cfRule type="expression" dxfId="180" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="179" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="77" priority="7">
+    <cfRule type="expression" dxfId="178" priority="7">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H8">
-    <cfRule type="expression" dxfId="76" priority="608">
+    <cfRule type="expression" dxfId="177" priority="608">
       <formula>$C57="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="75" priority="609">
+    <cfRule type="expression" dxfId="176" priority="609">
       <formula>$C74="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="610">
+    <cfRule type="expression" dxfId="175" priority="610">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="73" priority="611">
+    <cfRule type="expression" dxfId="174" priority="611">
       <formula>$C75="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="72" priority="612">
+    <cfRule type="expression" dxfId="173" priority="612">
       <formula>$C75="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="613">
+    <cfRule type="expression" dxfId="172" priority="613">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="expression" dxfId="70" priority="614">
+    <cfRule type="expression" dxfId="171" priority="614">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K48">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="168" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="167" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:K41">
-    <cfRule type="expression" dxfId="65" priority="5">
+    <cfRule type="expression" dxfId="166" priority="5">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="64" priority="617">
+    <cfRule type="expression" dxfId="165" priority="617">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="63" priority="621">
+    <cfRule type="expression" dxfId="164" priority="621">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="622">
+    <cfRule type="expression" dxfId="163" priority="622">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:K17">
-    <cfRule type="expression" dxfId="61" priority="623">
+    <cfRule type="expression" dxfId="162" priority="623">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H15">
-    <cfRule type="expression" dxfId="60" priority="624">
+    <cfRule type="expression" dxfId="161" priority="624">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38596,20 +39851,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB360FDB-9222-4846-8C29-B1EE5CE081EB}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="29"/>
+    <col min="3" max="4" width="10.83203125" style="29"/>
+    <col min="5" max="5" width="23.1640625" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -38623,10 +39880,16 @@
         <v>4064</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>4130</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>4096</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="29" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>4075</v>
       </c>
@@ -38639,9 +39902,12 @@
       <c r="D2" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="29" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
@@ -38654,14 +39920,17 @@
       <c r="D3" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="29" t="s">
+        <v>4166</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>4029</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>4071</v>
@@ -38669,14 +39938,17 @@
       <c r="D4" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="29" t="s">
+        <v>4124</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>4123</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>4124</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>4071</v>
@@ -38684,18 +39956,30 @@
       <c r="D5" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="29" t="s">
+        <v>4167</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>4121</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>4122</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>4168</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>4036</v>
       </c>
@@ -38708,9 +39992,12 @@
       <c r="D7" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="19" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>112</v>
       </c>
@@ -38723,9 +40010,12 @@
       <c r="D8" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>4065</v>
       </c>
@@ -38738,9 +40028,12 @@
       <c r="D9" s="29" t="s">
         <v>4068</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="29" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>113</v>
       </c>
@@ -38753,9 +40046,12 @@
       <c r="D10" s="29" t="s">
         <v>4068</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="19" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>188</v>
       </c>
@@ -38768,11 +40064,14 @@
       <c r="D11" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="19" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>4097</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>189</v>
       </c>
@@ -38785,16 +40084,19 @@
       <c r="D12" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="19" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>4097</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>4112</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>4113</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>4067</v>
@@ -38802,14 +40104,17 @@
       <c r="D13" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>4114</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>4115</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>4063</v>
@@ -38817,14 +40122,17 @@
       <c r="D14" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>4116</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>4117</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>4063</v>
@@ -38832,59 +40140,74 @@
       <c r="D15" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>4118</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="C18" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>4119</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>4120</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="E18" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>4086</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>4083</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>4085</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>4084</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>4089</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>4090</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>4071</v>
@@ -38892,14 +40215,17 @@
       <c r="D19" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="19" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>4091</v>
+        <v>4085</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>4092</v>
+        <v>4084</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>4071</v>
@@ -38907,14 +40233,17 @@
       <c r="D20" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="19" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>4088</v>
+        <v>4090</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>4071</v>
@@ -38922,46 +40251,53 @@
       <c r="D21" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>4127</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>99</v>
+      <c r="E21" s="19" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>4092</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>4063</v>
+        <v>4071</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4022</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4082</v>
+        <v>4087</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>4088</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>4071</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4082</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>14</v>
+        <v>4022</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>4063</v>
@@ -38969,124 +40305,144 @@
       <c r="D24" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="34" t="s">
+        <v>3084</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
         <v>4100</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>4093</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C27" s="29" t="s">
         <v>4067</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D27" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="E27" s="19" t="s">
+        <v>4170</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
         <v>4101</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>4094</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>4067</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>4126</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>4098</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>4078</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>4079</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>4063</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>4080</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>4081</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="E28" s="19" t="s">
+        <v>4170</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>4063</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>4030</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4102</v>
+        <v>4069</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>4079</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>4071</v>
+        <v>4063</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>4031</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4103</v>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>4081</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>4071</v>
+        <v>4063</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>4071</v>
@@ -39094,14 +40450,14 @@
       <c r="D32" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>4033</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>4105</v>
+        <v>4031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4103</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>4071</v>
@@ -39109,14 +40465,14 @@
       <c r="D33" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>1464</v>
+        <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>4107</v>
+        <v>4104</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>4071</v>
@@ -39124,14 +40480,14 @@
       <c r="D34" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4106</v>
+        <v>4033</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>4105</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>4071</v>
@@ -39139,14 +40495,14 @@
       <c r="D35" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
-        <v>4026</v>
+        <v>1464</v>
       </c>
       <c r="B36" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>4071</v>
@@ -39154,14 +40510,14 @@
       <c r="D36" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>4110</v>
+        <v>1466</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4106</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>4071</v>
@@ -39169,14 +40525,14 @@
       <c r="D37" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>102</v>
+        <v>4026</v>
       </c>
       <c r="B38" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>4071</v>
@@ -39184,50 +40540,44 @@
       <c r="D38" s="29" t="s">
         <v>4022</v>
       </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>4102</v>
-      </c>
-      <c r="B39" s="31" t="s">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>1465</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4129</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>4031</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
-        <v>4128</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>4032</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>4063</v>
@@ -39235,17 +40585,17 @@
       <c r="D41" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
-        <v>4130</v>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4135</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>4063</v>
@@ -39253,17 +40603,17 @@
       <c r="D42" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>4108</v>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>4136</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>1464</v>
+        <v>4032</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>4063</v>
@@ -39271,17 +40621,17 @@
       <c r="D43" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4106</v>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>4137</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>1466</v>
+        <v>4033</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>4063</v>
@@ -39289,17 +40639,17 @@
       <c r="D44" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4111</v>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>4139</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>4026</v>
+        <v>1464</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>4063</v>
@@ -39307,17 +40657,17 @@
       <c r="D45" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>4110</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4138</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>101</v>
+        <v>1466</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>4063</v>
@@ -39325,17 +40675,17 @@
       <c r="D46" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4109</v>
+        <v>4140</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>102</v>
+        <v>4026</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>4063</v>
@@ -39343,589 +40693,1960 @@
       <c r="D47" s="29" t="s">
         <v>4069</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>1590</v>
       </c>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="C51" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
         <v>1591</v>
       </c>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="B54" s="29" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="B55" s="29" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
         <v>2567</v>
       </c>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="B58" s="19" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
         <v>2568</v>
       </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>4034</v>
-      </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="B59" s="19" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>4201</v>
+      </c>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>4201</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="31" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>3071</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="29" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H85" s="17"/>
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H88" s="17"/>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H89" s="17"/>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="H90" s="17"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17" t="s">
+        <v>4099</v>
+      </c>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B103" s="33" t="s">
         <v>4058</v>
       </c>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
-        <v>4038</v>
-      </c>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
-        <v>4039</v>
-      </c>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
-        <v>4040</v>
-      </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>4041</v>
-      </c>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
-        <v>4044</v>
-      </c>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>2521</v>
-      </c>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
-        <v>2523</v>
-      </c>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>2524</v>
-      </c>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>4054</v>
-      </c>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>4055</v>
-      </c>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
-        <v>4053</v>
-      </c>
-      <c r="E80" s="17"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>4051</v>
-      </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>4059</v>
-      </c>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>4060</v>
-      </c>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>4043</v>
-      </c>
+      <c r="C103" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B2 A5:B6 A3:A4 B12:B16 A17:A21 A28:A29 A22:B22 B23:B24">
-    <cfRule type="expression" dxfId="59" priority="35">
+  <conditionalFormatting sqref="A5:B6 A19:A23 A30:A31 A24:B24 B25:B26 B12:B15 B18 A2:A4">
+    <cfRule type="expression" dxfId="160" priority="155">
       <formula>$C2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A95">
-    <cfRule type="expression" dxfId="58" priority="67">
-      <formula>$C85="Y"</formula>
+  <conditionalFormatting sqref="A55:A57">
+    <cfRule type="expression" dxfId="159" priority="188">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="158" priority="186">
+      <formula>$C46="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="157" priority="182">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="expression" dxfId="156" priority="183">
+      <formula>$C38="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 H76:H81 E76:E81">
+    <cfRule type="expression" dxfId="155" priority="180">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="154" priority="181">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="153" priority="179">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:A51">
+    <cfRule type="expression" dxfId="152" priority="178">
+      <formula>$C42="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="57" priority="68">
-      <formula>$C8="Y"</formula>
+    <cfRule type="expression" dxfId="151" priority="177">
+      <formula>$C34="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="56" priority="66">
-      <formula>$C44="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="55" priority="62">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A33">
-    <cfRule type="expression" dxfId="54" priority="63">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="53" priority="60">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38 A48:A49">
-    <cfRule type="expression" dxfId="52" priority="61">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="51" priority="59">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$C40="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>$C32="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A56">
-    <cfRule type="expression" dxfId="48" priority="56">
+  <conditionalFormatting sqref="B60:B61">
+    <cfRule type="expression" dxfId="150" priority="176">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="47" priority="70">
+    <cfRule type="expression" dxfId="149" priority="190">
       <formula>$C11="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A23 A25:A27">
-    <cfRule type="expression" dxfId="46" priority="55">
+  <conditionalFormatting sqref="A8:A25 A27:A29">
+    <cfRule type="expression" dxfId="148" priority="175">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="147" priority="171">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="146" priority="172">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" dxfId="145" priority="173">
+      <formula>$C11="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="144" priority="174">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B89">
+    <cfRule type="expression" dxfId="143" priority="169">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" dxfId="142" priority="170">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="141" priority="167">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 E99">
+    <cfRule type="expression" dxfId="140" priority="168">
+      <formula>$C12="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B81">
+    <cfRule type="expression" dxfId="139" priority="162">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72 H72 E72">
+    <cfRule type="expression" dxfId="138" priority="163">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 H75 E75">
+    <cfRule type="expression" dxfId="137" priority="164">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73 H73 E73">
+    <cfRule type="expression" dxfId="136" priority="165">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="135" priority="166">
+      <formula>$C7="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="134" priority="193">
+      <formula>$C89="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="133" priority="194">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 B27:B28">
+    <cfRule type="expression" dxfId="132" priority="158">
+      <formula>$C7="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="159">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="expression" dxfId="130" priority="157">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="129" priority="156">
+      <formula>$C11="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="expression" dxfId="128" priority="152">
+      <formula>$C33="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="127" priority="770">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="126" priority="771">
+      <formula>$C33="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="125" priority="141">
+      <formula>$C34="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="124" priority="138">
+      <formula>$C55="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="123" priority="136">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="expression" dxfId="122" priority="137">
+      <formula>$C47="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="121" priority="134">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="120" priority="135">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="119" priority="139">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="118" priority="140">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="117" priority="133">
+      <formula>$C55="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="116" priority="132">
+      <formula>$C42="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="115" priority="131">
+      <formula>$C38="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="114" priority="122">
+      <formula>$C49="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="113" priority="130">
+      <formula>$C33="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="112" priority="129">
+      <formula>$C34="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="111" priority="128">
+      <formula>$C32="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="110" priority="127">
+      <formula>$C37="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="expression" dxfId="109" priority="126">
+      <formula>$C46="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="108" priority="125">
+      <formula>$C36="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="107" priority="124">
+      <formula>$C40="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="106" priority="123">
+      <formula>$C47="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="105" priority="773">
+      <formula>$C32="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="104" priority="121">
+      <formula>$C26="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="103" priority="120">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="102" priority="119">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="101" priority="118">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="100" priority="117">
+      <formula>$C43="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="99" priority="116">
+      <formula>$C45="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="98" priority="115">
+      <formula>$C45="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="97" priority="114">
+      <formula>$C44="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="96" priority="107">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="expression" dxfId="95" priority="108">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88:I90">
+    <cfRule type="expression" dxfId="93" priority="102">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86:I87">
+    <cfRule type="expression" dxfId="92" priority="103">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:I85">
+    <cfRule type="expression" dxfId="91" priority="104">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84:I84 H83 A83">
+    <cfRule type="expression" dxfId="90" priority="105">
+      <formula>$C38="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="expression" dxfId="89" priority="99">
+      <formula>$C40="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="88" priority="100">
+      <formula>$C39="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="expression" dxfId="87" priority="98">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="45" priority="72">
-      <formula>$C84="Y"</formula>
+    <cfRule type="expression" dxfId="86" priority="97">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" dxfId="85" priority="96">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="84" priority="95">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="43" priority="52">
+  <conditionalFormatting sqref="J98 E96 J93 E91">
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92 A90">
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="expression" dxfId="81" priority="84">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92 E92">
+    <cfRule type="expression" dxfId="80" priority="83">
+      <formula>$C42="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94 E94">
+    <cfRule type="expression" dxfId="79" priority="81">
+      <formula>$C59="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="expression" dxfId="78" priority="80">
+      <formula>$C62="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="expression" dxfId="77" priority="79">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97 E97">
+    <cfRule type="expression" dxfId="76" priority="78">
+      <formula>$C44="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>$C27="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="expression" dxfId="74" priority="71">
+      <formula>$C82="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="72">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102 E102">
+    <cfRule type="expression" dxfId="72" priority="69">
+      <formula>$C82="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="70">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B101">
+    <cfRule type="expression" dxfId="70" priority="774">
+      <formula>$J93="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="69" priority="775">
+      <formula>$J92="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101">
+    <cfRule type="expression" dxfId="68" priority="779">
+      <formula>$C27="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100">
+    <cfRule type="expression" dxfId="67" priority="781">
+      <formula>$C29="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="expression" dxfId="66" priority="785">
+      <formula>$J101="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="expression" dxfId="65" priority="787">
+      <formula>$J100="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="expression" dxfId="64" priority="789">
+      <formula>$C44="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="expression" dxfId="63" priority="793">
+      <formula>$C59="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93 E93">
+    <cfRule type="expression" dxfId="62" priority="794">
+      <formula>$J101="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="expression" dxfId="61" priority="795">
+      <formula>$J102="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100 E100">
+    <cfRule type="expression" dxfId="60" priority="797">
+      <formula>$J102="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="59" priority="811">
+      <formula>$C29="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="58" priority="815">
+      <formula>$J100="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88:E89 E82">
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="expression" dxfId="56" priority="66">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="55" priority="67">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="54" priority="68">
+      <formula>$C36="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="53" priority="64">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74 E74">
+    <cfRule type="expression" dxfId="52" priority="816">
+      <formula>$C35="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="51" priority="58">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="50" priority="818">
+      <formula>$C2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="42" priority="53">
-      <formula>$C11="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="41" priority="54">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="48" priority="55">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A83">
-    <cfRule type="expression" dxfId="40" priority="49">
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="expression" dxfId="47" priority="54">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="39" priority="50">
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$C13="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>$C14="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$C15="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="40" priority="46">
+      <formula>$C18="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="47">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="38" priority="45">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="expression" dxfId="38" priority="47">
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="37" priority="48">
-      <formula>$C12="Y"</formula>
+  <conditionalFormatting sqref="E19:E23">
+    <cfRule type="expression" dxfId="36" priority="43">
+      <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A75">
-    <cfRule type="expression" dxfId="36" priority="42">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>$C27="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$C28="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$C18="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$C19="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>$C20="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="34" priority="44">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$C107="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$C108="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E69">
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$C71="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="expression" dxfId="25" priority="819">
+      <formula>$C42="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>$C106="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="33" priority="45">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>$C7="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="31" priority="73">
-      <formula>$C83="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="30" priority="74">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="21" priority="827">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7 B25:B26">
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>$C7="Y"</formula>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>$C59="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="27" priority="37">
-      <formula>$C8="Y"</formula>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$C41="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>$C11="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A27">
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>$C31="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="24" priority="650">
+  <conditionalFormatting sqref="A101 E101">
+    <cfRule type="expression" dxfId="16" priority="830">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="23" priority="651">
-      <formula>$C31="Y"</formula>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$C45="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>$C32="Y"</formula>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>$C36="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="21" priority="652">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>$C10="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$C36="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>$C47="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="10" priority="17">
+      <formula>$C38="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="20" priority="18">
-      <formula>$C54="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="19" priority="16">
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B42">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>$C45="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="17" priority="14">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="16" priority="15">
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="14" priority="20">
+  <conditionalFormatting sqref="A58:A59">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C54="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$C40="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>$C47="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$C31="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$C32="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$C30="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$C35="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$C44="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$C34="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C38="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C45="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="1" priority="653">
-      <formula>$C30="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C24="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_processing/pew/pewQVDict.xlsx
+++ b/data_processing/pew/pewQVDict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalie_kraft/Documents/LAS/bridash/data_processing/pew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA372E-37AF-994C-BDF9-0FF63FE9DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4D722-EB00-244E-BFFA-F03D2806787B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36500" yWindow="-16260" windowWidth="34640" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="4208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="4209">
   <si>
     <t>variable_name</t>
   </si>
@@ -12688,6 +12688,9 @@
   </si>
   <si>
     <t>econ_ties_usch: How do you view current economic ties between the U.S. and China?</t>
+  </si>
+  <si>
+    <t>qdate</t>
   </si>
 </sst>
 </file>
@@ -12948,9 +12951,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -12996,6 +12996,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -37572,38 +37575,38 @@
     <col min="13" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="12">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="34">
         <v>2021</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34">
         <v>2020</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34">
         <v>2019</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34">
         <v>2018</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34">
         <v>2017</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="13" t="s">
         <v>4023</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>4024</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>4025</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -37636,529 +37639,529 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>1380</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>2396</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>2397</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>4035</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>1381</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>1381</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>2397</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>2396</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>4036</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>1191</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>1191</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>2208</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>3400</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1192</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>1192</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>3401</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>1352</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>2362</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>3590</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>3814</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>3930</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>1353</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>2363</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>3591</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>4029</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>1463</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>3854</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>1931</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>3000</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>3855</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>1465</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>1932</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>1465</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>3003</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>4030</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>3857</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>1943</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>3007</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="25" t="s">
         <v>4031</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>3858</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>1944</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>3009</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>4032</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>1945</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>3011</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="25" t="s">
         <v>4033</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>1464</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>1930</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>1464</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>3856</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>1466</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>1933</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>1466</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>3004</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="25" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>3785</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>3895</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>1118</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>2085</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>3102</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>4026</v>
       </c>
       <c r="M18" s="10" t="s">
@@ -38166,137 +38169,137 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>3896</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>1119</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>2086</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>3103</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>3897</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>1120</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>2087</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>3104</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>3927</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>1258</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>2257</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>3484</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>1112</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>2067</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>3084</v>
       </c>
-      <c r="K22" s="26"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="10" t="s">
         <v>4057</v>
       </c>
@@ -38305,170 +38308,170 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>3758</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>3866</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="16" t="s">
+      <c r="D23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15" t="s">
         <v>1590</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>2068</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>1590</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>3088</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="25" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>3759</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>3867</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16" t="s">
+      <c r="D24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="15" t="s">
         <v>1591</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>2069</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>1591</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="18" t="s">
         <v>3089</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="25" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="16" t="s">
+      <c r="F25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>3001</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>2061</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>3078</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>1135</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>2567</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>3154</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>2567</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>1136</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>2568</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="18" t="s">
         <v>3155</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>2568</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>3784</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>3893</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>1115</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="25" t="s">
         <v>4034</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>3894</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>1113</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="10" t="s">
         <v>4056</v>
       </c>
@@ -38477,34 +38480,34 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>3774</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>3883</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="16" t="s">
         <v>4058</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
-      <c r="E32" s="16" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="E32" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>1139</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>1682</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>2165</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="25" t="s">
         <v>4038</v>
       </c>
       <c r="M32" s="10" t="s">
@@ -38512,25 +38515,25 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="18" t="s">
         <v>1140</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>1580</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>2054</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>1580</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="18" t="s">
         <v>3071</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="25" t="s">
         <v>4039</v>
       </c>
       <c r="M33" s="10" t="s">
@@ -38538,19 +38541,19 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>1137</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>1681</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>2164</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>4040</v>
       </c>
       <c r="M34" s="10" t="s">
@@ -38558,26 +38561,26 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="E35" s="16" t="s">
+      <c r="A35" s="16"/>
+      <c r="E35" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>1138</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>1581</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>2055</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>2508</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>3072</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="25" t="s">
         <v>4041</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -38585,39 +38588,39 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="G36" s="16" t="s">
+      <c r="A36" s="16"/>
+      <c r="G36" s="15" t="s">
         <v>1582</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="18" t="s">
         <v>2056</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>1582</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>3073</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="25" t="s">
         <v>4042</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="15" t="s">
         <v>2745</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="18" t="s">
         <v>3357</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="25" t="s">
         <v>4044</v>
       </c>
       <c r="M37" s="10" t="s">
@@ -38625,596 +38628,596 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="I38" s="16" t="s">
+      <c r="B38" s="18"/>
+      <c r="I38" s="15" t="s">
         <v>2520</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="18" t="s">
         <v>3092</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="25" t="s">
         <v>2520</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>2521</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="18" t="s">
         <v>3093</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="25" t="s">
         <v>2521</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="I40" s="16" t="s">
+      <c r="B40" s="18"/>
+      <c r="I40" s="15" t="s">
         <v>2523</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="18" t="s">
         <v>3095</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="25" t="s">
         <v>2523</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="19"/>
-      <c r="I41" s="16" t="s">
+      <c r="B41" s="18"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="18"/>
+      <c r="I41" s="15" t="s">
         <v>2524</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="18" t="s">
         <v>3096</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="25" t="s">
         <v>2524</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="19"/>
-      <c r="I42" s="16" t="s">
+      <c r="B42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="I42" s="15" t="s">
         <v>1609</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>3125</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="25" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E43" s="17"/>
-      <c r="I43" s="16" t="s">
+      <c r="E43" s="16"/>
+      <c r="I43" s="15" t="s">
         <v>1610</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="18" t="s">
         <v>3126</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="25" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="18" t="s">
         <v>3128</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="25" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>1613</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="18" t="s">
         <v>3129</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="25" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="15" t="s">
         <v>1614</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>3130</v>
       </c>
-      <c r="K46" s="26" t="s">
+      <c r="K46" s="25" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="15" t="s">
         <v>1615</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="18" t="s">
         <v>3131</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="25" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="15" t="s">
         <v>2570</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="18" t="s">
         <v>3158</v>
       </c>
-      <c r="K48" s="26" t="s">
+      <c r="K48" s="25" t="s">
         <v>2570</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="D49" s="19"/>
-      <c r="G49" s="16" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="D49" s="18"/>
+      <c r="G49" s="15" t="s">
         <v>1620</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="18" t="s">
         <v>2103</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="15" t="s">
         <v>1620</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="18" t="s">
         <v>3157</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="25" t="s">
         <v>4054</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D50" s="19"/>
-      <c r="G50" s="16" t="s">
+      <c r="D50" s="18"/>
+      <c r="G50" s="15" t="s">
         <v>1592</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="18" t="s">
         <v>2070</v>
       </c>
-      <c r="K50" s="26" t="s">
+      <c r="K50" s="25" t="s">
         <v>4055</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="19"/>
-      <c r="G51" s="16" t="s">
+      <c r="D51" s="18"/>
+      <c r="G51" s="15" t="s">
         <v>1593</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="18" t="s">
         <v>2071</v>
       </c>
-      <c r="K51" s="26" t="s">
+      <c r="K51" s="25" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="19"/>
-      <c r="G52" s="16" t="s">
+      <c r="D52" s="18"/>
+      <c r="G52" s="15" t="s">
         <v>1594</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="18" t="s">
         <v>2072</v>
       </c>
-      <c r="K52" s="26" t="s">
+      <c r="K52" s="25" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="20"/>
-      <c r="D53" s="19"/>
-      <c r="G53" s="16" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="G53" s="15" t="s">
         <v>1617</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>2100</v>
       </c>
-      <c r="K53" s="26" t="s">
+      <c r="K53" s="25" t="s">
         <v>4053</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="G54" s="16" t="s">
+      <c r="B54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="G54" s="15" t="s">
         <v>1618</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="18" t="s">
         <v>2101</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="26" t="s">
+      <c r="I54" s="16"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="25" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="16" t="s">
+      <c r="B55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="15" t="s">
         <v>1680</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="18" t="s">
         <v>2163</v>
       </c>
-      <c r="K55" s="26" t="s">
+      <c r="K55" s="25" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="21"/>
-      <c r="G56" s="16" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="20"/>
+      <c r="G56" s="15" t="s">
         <v>1619</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="18" t="s">
         <v>2102</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K56" s="25" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="21"/>
-      <c r="G57" s="27" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="20"/>
+      <c r="G57" s="26" t="s">
         <v>1671</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="27" t="s">
         <v>2154</v>
       </c>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27" t="s">
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="21"/>
-      <c r="G58" s="27" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="20"/>
+      <c r="G58" s="26" t="s">
         <v>1672</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H58" s="27" t="s">
         <v>2155</v>
       </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27" t="s">
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="21"/>
-      <c r="G59" s="27" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="20"/>
+      <c r="G59" s="26" t="s">
         <v>1673</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="27" t="s">
         <v>2156</v>
       </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27" t="s">
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="27" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="26" t="s">
         <v>1675</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="27" t="s">
         <v>2158</v>
       </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27" t="s">
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="26" t="s">
         <v>1676</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="27" t="s">
         <v>2159</v>
       </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27" t="s">
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="26" t="s">
         <v>1677</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="27" t="s">
         <v>2160</v>
       </c>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27" t="s">
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="27" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="26" t="s">
         <v>1678</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H63" s="27" t="s">
         <v>2161</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27" t="s">
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="27" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="26" t="s">
         <v>1679</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="27" t="s">
         <v>2162</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27" t="s">
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="27" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="26" t="s">
         <v>1690</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="27" t="s">
         <v>2173</v>
       </c>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27" t="s">
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26" t="s">
         <v>1690</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="E66" s="26" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="E66" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="18" t="s">
         <v>1117</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="K66" s="26" t="s">
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="K66" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="E67" s="26" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="E67" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="18" t="s">
         <v>1116</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="26" t="s">
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="25" t="s">
         <v>4051</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="26" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="18" t="s">
         <v>1101</v>
       </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="26" t="s">
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="25" t="s">
         <v>4059</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="26" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="18" t="s">
         <v>1102</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="26" t="s">
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="25" t="s">
         <v>4060</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="26" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="18" t="s">
         <v>1105</v>
       </c>
-      <c r="J70" s="17"/>
-      <c r="K70" s="26" t="s">
+      <c r="J70" s="16"/>
+      <c r="K70" s="25" t="s">
         <v>4049</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="26" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="26" t="s">
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="25" t="s">
         <v>4050</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="26" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="18" t="s">
         <v>1107</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="26" t="s">
+      <c r="J72" s="16"/>
+      <c r="K72" s="25" t="s">
         <v>4048</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="26" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="18" t="s">
         <v>1078</v>
       </c>
-      <c r="J73" s="17"/>
-      <c r="K73" s="26" t="s">
+      <c r="J73" s="16"/>
+      <c r="K73" s="25" t="s">
         <v>4047</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="26" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="18" t="s">
         <v>1114</v>
       </c>
-      <c r="J74" s="17"/>
-      <c r="K74" s="26" t="s">
+      <c r="J74" s="16"/>
+      <c r="K74" s="25" t="s">
         <v>4052</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="26" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F75" s="18" t="s">
         <v>1108</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="26" t="s">
+      <c r="J75" s="16"/>
+      <c r="K75" s="25" t="s">
         <v>4046</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="26" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="26" t="s">
+      <c r="J76" s="16"/>
+      <c r="K76" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="J77" s="17"/>
-      <c r="K77" s="26" t="s">
+      <c r="J77" s="16"/>
+      <c r="K77" s="25" t="s">
         <v>4206</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>3772</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="19" t="s">
         <v>3881</v>
       </c>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>4043</v>
       </c>
     </row>
@@ -39853,480 +39856,480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB360FDB-9222-4846-8C29-B1EE5CE081EB}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="29" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="29"/>
-    <col min="5" max="5" width="23.1640625" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="37.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="28" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="28"/>
+    <col min="5" max="5" width="23.1640625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>4061</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>4064</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4130</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>4096</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>4171</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>4075</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>4076</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>4165</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>4077</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>4166</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>4029</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>4124</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>4124</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>4122</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>4123</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>4167</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>4120</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>4121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>4168</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>4036</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="30" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>4095</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>4062</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>2396</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>1191</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>4065</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>4066</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>4067</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>4068</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>4066</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4070</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>4068</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>3401</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>4072</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>3590</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>4097</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>4073</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>4074</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>3591</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>4097</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>4111</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>4112</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>4067</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>4022</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>4113</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>4114</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>4069</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>4115</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>4116</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>4069</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>4125</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>1258</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>4193</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>1258</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>4117</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>4118</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>4119</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>4086</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>4083</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>4169</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>4085</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>4084</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>4169</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>4089</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>4090</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>4169</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>4091</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>4092</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>4169</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>4087</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>4088</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>4169</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>4131</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>3084</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>4082</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>4068</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>3000</v>
       </c>
     </row>
@@ -40334,42 +40337,42 @@
       <c r="A26" t="s">
         <v>4132</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>3000</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>4100</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4093</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>4067</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>4170</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>4101</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -40378,215 +40381,215 @@
       <c r="C28" s="9" t="s">
         <v>4067</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>4170</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>4133</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>4098</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4063</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>1113</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>4078</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>4079</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>4080</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>4081</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>4030</v>
       </c>
       <c r="B32" t="s">
         <v>4102</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>4031</v>
       </c>
       <c r="B33" t="s">
         <v>4103</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>4032</v>
       </c>
       <c r="B34" t="s">
         <v>4104</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>4033</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>4105</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>1464</v>
       </c>
       <c r="B36" t="s">
         <v>4107</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>1466</v>
       </c>
       <c r="B37" t="s">
         <v>4106</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>4026</v>
       </c>
       <c r="B38" t="s">
         <v>4110</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>4109</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B40" t="s">
         <v>4108</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>4134</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>1465</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
@@ -40594,71 +40597,71 @@
       <c r="A42" t="s">
         <v>4135</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>4031</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>4136</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>4032</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>4137</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>4033</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>4139</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>1464</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
@@ -40666,17 +40669,17 @@
       <c r="A46" t="s">
         <v>4138</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>1466</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
@@ -40684,35 +40687,35 @@
       <c r="A47" t="s">
         <v>4140</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>4026</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>4141</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
@@ -40720,1150 +40723,1150 @@
       <c r="A49" t="s">
         <v>4142</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>1590</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>4126</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>4143</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>1590</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>1591</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>4127</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>4144</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>1591</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>4194</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>3001</v>
       </c>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>4195</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>3078</v>
       </c>
-      <c r="F55" s="17"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>4197</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>3001</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>4196</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>3078</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>2567</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="18" t="s">
         <v>4202</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="28" t="s">
         <v>4191</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>3154</v>
       </c>
-      <c r="F58" s="17"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>2568</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>4203</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>4191</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>3155</v>
       </c>
-      <c r="F59" s="17"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>4204</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>2567</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>3154</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>4205</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>2568</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>3155</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17" t="s">
+      <c r="F61" s="16"/>
+      <c r="G61" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>4200</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="28" t="s">
         <v>4198</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>4201</v>
       </c>
-      <c r="F62" s="17"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>4199</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="30" t="s">
         <v>4200</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>4201</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>4039</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>4183</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>4191</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>3071</v>
       </c>
-      <c r="F64" s="17"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>4041</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>4182</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="28" t="s">
         <v>4191</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="18" t="s">
         <v>3072</v>
       </c>
-      <c r="F65" s="17"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>4189</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>3071</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>4190</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>4184</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>3072</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>4188</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>1682</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>2165</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>4187</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="30" t="s">
         <v>1681</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>2164</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>4186</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>1582</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>3073</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17" t="s">
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>4185</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="30" t="s">
         <v>4044</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>3357</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17" t="s">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>4145</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>2520</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="18" t="s">
         <v>3092</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17" t="s">
+      <c r="F72" s="16"/>
+      <c r="G72" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H72" s="17"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>4146</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>2521</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>3093</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17" t="s">
+      <c r="F73" s="16"/>
+      <c r="G73" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H73" s="17"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>4147</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>2524</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>3096</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17" t="s">
+      <c r="F74" s="16"/>
+      <c r="G74" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="18" t="s">
         <v>4172</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>1609</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>3125</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17" t="s">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H75" s="17"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>4173</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>1610</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>3126</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17" t="s">
+      <c r="F76" s="16"/>
+      <c r="G76" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="18" t="s">
         <v>4148</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>1612</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>3128</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17" t="s">
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H77" s="17"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>4174</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>1613</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>3129</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>4175</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>1614</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="18" t="s">
         <v>3130</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17" t="s">
+      <c r="F79" s="16"/>
+      <c r="G79" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H79" s="17"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="28" t="s">
         <v>4176</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>1615</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>3131</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17" t="s">
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H80" s="17"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="28" t="s">
         <v>4149</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>2570</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>3158</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17" t="s">
+      <c r="F81" s="16"/>
+      <c r="G81" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H81" s="17"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>4177</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>4054</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="18" t="s">
         <v>2103</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17" t="s">
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>4178</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>4055</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="18" t="s">
         <v>2070</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17" t="s">
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>4179</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="30" t="s">
         <v>4128</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="18" t="s">
         <v>2071</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="19"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="18" t="s">
         <v>4180</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>1594</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>2072</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17" t="s">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H85" s="17"/>
-      <c r="I85" s="19"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>4150</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>4053</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="18" t="s">
         <v>2100</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17" t="s">
+      <c r="F86" s="16"/>
+      <c r="G86" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="19"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>4151</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>4129</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>2101</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17" t="s">
+      <c r="F87" s="16"/>
+      <c r="G87" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="19"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="18" t="s">
         <v>4181</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>1680</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>2163</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17" t="s">
+      <c r="F88" s="16"/>
+      <c r="G88" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="19"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="18" t="s">
         <v>4152</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>1619</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>2102</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
+      <c r="F89" s="16"/>
+      <c r="G89" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="19"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="18" t="s">
         <v>4153</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="18" t="s">
         <v>1117</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17" t="s">
+      <c r="F90" s="16"/>
+      <c r="G90" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H90" s="17"/>
-      <c r="I90" s="19"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="18" t="s">
         <v>4154</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>4051</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>1116</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17" t="s">
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="18" t="s">
         <v>4155</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>4059</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D92" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>1101</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17" t="s">
+      <c r="F92" s="16"/>
+      <c r="G92" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J92" s="17"/>
+      <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="18" t="s">
         <v>4156</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="30" t="s">
         <v>4060</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>1102</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17" t="s">
+      <c r="F93" s="16"/>
+      <c r="G93" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J93" s="17"/>
+      <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="18" t="s">
         <v>4157</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="30" t="s">
         <v>4049</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>1105</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17" t="s">
+      <c r="F94" s="16"/>
+      <c r="G94" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J94" s="17"/>
+      <c r="J94" s="16"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="18" t="s">
         <v>4158</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="30" t="s">
         <v>4050</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17" t="s">
+      <c r="F95" s="16"/>
+      <c r="G95" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J95" s="17"/>
+      <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="18" t="s">
         <v>4159</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>4048</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>1107</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17" t="s">
+      <c r="F96" s="16"/>
+      <c r="G96" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J96" s="17"/>
+      <c r="J96" s="16"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="18" t="s">
         <v>4160</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>4047</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="18" t="s">
         <v>1078</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17" t="s">
+      <c r="F97" s="16"/>
+      <c r="G97" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J97" s="17"/>
+      <c r="J97" s="16"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>4161</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>4052</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>1114</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17" t="s">
+      <c r="F98" s="16"/>
+      <c r="G98" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J98" s="17"/>
+      <c r="J98" s="16"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="18" t="s">
         <v>4162</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="30" t="s">
         <v>4046</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="18" t="s">
         <v>1108</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17" t="s">
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J99" s="17"/>
+      <c r="J99" s="16"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="18" t="s">
         <v>4163</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
+      <c r="F100" s="16"/>
+      <c r="G100" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J100" s="17"/>
+      <c r="J100" s="16"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="18" t="s">
         <v>4207</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="30" t="s">
         <v>4206</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17" t="s">
+      <c r="F101" s="16"/>
+      <c r="G101" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J101" s="17"/>
+      <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>4164</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>4043</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="19" t="s">
         <v>3881</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17" t="s">
+      <c r="F102" s="16"/>
+      <c r="G102" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J102" s="17"/>
+      <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>4192</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="32" t="s">
         <v>4058</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="19" t="s">
         <v>3883</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17" t="s">
+      <c r="F103" s="16"/>
+      <c r="G103" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J104" s="22"/>
+      <c r="J104" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B6 A19:A23 A30:A31 A24:B24 B25:B26 B12:B15 B18 A2:A4">

--- a/data_processing/pew/pewQVDict.xlsx
+++ b/data_processing/pew/pewQVDict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalie_kraft/Documents/LAS/bridash/data_processing/pew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4D722-EB00-244E-BFFA-F03D2806787B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46820763-FBD3-6448-98EA-37C81861C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36500" yWindow="-16260" windowWidth="34640" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="34860" windowHeight="21900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="5" r:id="rId1"/>
@@ -39856,8 +39856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB360FDB-9222-4846-8C29-B1EE5CE081EB}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data_processing/pew/pewQVDict.xlsx
+++ b/data_processing/pew/pewQVDict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalie_kraft/Documents/LAS/bridash/data_processing/pew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46820763-FBD3-6448-98EA-37C81861C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA2D1C-8669-4C4A-AC34-FC9D7B2FB013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="34860" windowHeight="21900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="4209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="4212">
   <si>
     <t>variable_name</t>
   </si>
@@ -12691,6 +12691,15 @@
   </si>
   <si>
     <t>qdate</t>
+  </si>
+  <si>
+    <t>qs8</t>
+  </si>
+  <si>
+    <t>Urban/Rural/Suburban</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
 </sst>
 </file>
@@ -13012,7 +13021,17 @@
     <cellStyle name="style1653674313118" xfId="7" xr:uid="{9BCB1D19-D975-B94E-A914-38E36B84D20C}"/>
     <cellStyle name="style1653674313702" xfId="8" xr:uid="{3E7AD95F-8CB5-1643-BD70-9D2DF7B58AF9}"/>
   </cellStyles>
-  <dxfs count="308">
+  <dxfs count="309">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -18596,34 +18615,34 @@
   </sheetData>
   <autoFilter ref="A1:D258" xr:uid="{ADFDCDBA-9437-2A4B-99A0-9034E1D786F7}"/>
   <conditionalFormatting sqref="A1:XFD41 A43:XFD43 A44:C44 E44:XFD44 A267:XFD1048576 A45:XFD264">
-    <cfRule type="expression" dxfId="307" priority="7">
+    <cfRule type="expression" dxfId="308" priority="7">
       <formula>$C1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="8">
+    <cfRule type="expression" dxfId="307" priority="8">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="305" priority="11">
+    <cfRule type="expression" dxfId="306" priority="11">
       <formula>$D42="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="12">
+    <cfRule type="expression" dxfId="305" priority="12">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="303" priority="1">
+    <cfRule type="expression" dxfId="304" priority="1">
       <formula>$C42="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="2">
+    <cfRule type="expression" dxfId="303" priority="2">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42 E42:XFD42">
-    <cfRule type="expression" dxfId="301" priority="15">
+    <cfRule type="expression" dxfId="302" priority="15">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="16">
+    <cfRule type="expression" dxfId="301" priority="16">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20545,15 +20564,15 @@
   </sheetData>
   <autoFilter ref="A1:C227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="299" priority="2">
+    <cfRule type="expression" dxfId="300" priority="2">
       <formula>$C1="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="3">
+    <cfRule type="expression" dxfId="299" priority="3">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="297" priority="1">
+    <cfRule type="expression" dxfId="298" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25578,17 +25597,17 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:XFD520 A523:XFD1048576 C521:XFD521">
-    <cfRule type="expression" dxfId="296" priority="1">
+    <cfRule type="expression" dxfId="297" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D522:XFD522 A522:B522 C521">
-    <cfRule type="expression" dxfId="295" priority="19">
+    <cfRule type="expression" dxfId="296" priority="19">
       <formula>$C520="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A521:B521">
-    <cfRule type="expression" dxfId="294" priority="20">
+    <cfRule type="expression" dxfId="295" priority="20">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30313,7 +30332,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="293" priority="1">
+    <cfRule type="expression" dxfId="294" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37542,7 +37561,7 @@
   </sheetData>
   <autoFilter ref="A1:C876" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="292" priority="1">
+    <cfRule type="expression" dxfId="293" priority="1">
       <formula>$C1="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39230,621 +39249,621 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:J10 C11:D11 C13:D15 C37:D37 C74:D77 K76:K77 C3:D8 C18:D22 C25:D26">
-    <cfRule type="expression" dxfId="291" priority="71">
+    <cfRule type="expression" dxfId="292" priority="71">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="290" priority="68">
+    <cfRule type="expression" dxfId="291" priority="68">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="289" priority="62">
+    <cfRule type="expression" dxfId="290" priority="62">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="63">
+    <cfRule type="expression" dxfId="289" priority="63">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="287" priority="64">
+    <cfRule type="expression" dxfId="288" priority="64">
       <formula>$C15="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="65">
+    <cfRule type="expression" dxfId="287" priority="65">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:J25">
-    <cfRule type="expression" dxfId="285" priority="83">
+    <cfRule type="expression" dxfId="286" priority="83">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="expression" dxfId="284" priority="85">
+    <cfRule type="expression" dxfId="285" priority="85">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12 A4:B4 A8:B8">
-    <cfRule type="expression" dxfId="283" priority="104">
+    <cfRule type="expression" dxfId="284" priority="104">
       <formula>$C3="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="105">
+    <cfRule type="expression" dxfId="283" priority="105">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B9 A13:B14 A21:B21 A5:B6">
-    <cfRule type="expression" dxfId="281" priority="106">
+    <cfRule type="expression" dxfId="282" priority="106">
       <formula>$C5="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="107">
+    <cfRule type="expression" dxfId="281" priority="107">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11 E13:H13 I35:J35 J73">
-    <cfRule type="expression" dxfId="279" priority="112">
+    <cfRule type="expression" dxfId="280" priority="112">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4">
-    <cfRule type="expression" dxfId="278" priority="115">
+    <cfRule type="expression" dxfId="279" priority="115">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19 E5:H6 E27:F27 I27:J28 E35:F35 E33:F33 E32:H32 G34:H34 I54:J54 I37:J37 I71 I43:J49 G55:H65 G49:H49 E7:F8 E21:F21">
-    <cfRule type="expression" dxfId="277" priority="125">
+    <cfRule type="expression" dxfId="278" priority="125">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:H12">
-    <cfRule type="expression" dxfId="276" priority="141">
+    <cfRule type="expression" dxfId="277" priority="141">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:K26">
-    <cfRule type="expression" dxfId="275" priority="145">
+    <cfRule type="expression" dxfId="276" priority="145">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J4">
-    <cfRule type="expression" dxfId="274" priority="158">
+    <cfRule type="expression" dxfId="275" priority="158">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:J16">
-    <cfRule type="expression" dxfId="273" priority="163">
+    <cfRule type="expression" dxfId="274" priority="163">
       <formula>$C11="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:H17 G24:H24">
-    <cfRule type="expression" dxfId="272" priority="164">
+    <cfRule type="expression" dxfId="273" priority="164">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="271" priority="166">
+    <cfRule type="expression" dxfId="272" priority="166">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:J15 J71">
-    <cfRule type="expression" dxfId="270" priority="199">
+    <cfRule type="expression" dxfId="271" priority="199">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="269" priority="202">
+    <cfRule type="expression" dxfId="270" priority="202">
       <formula>$C18="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="203">
+    <cfRule type="expression" dxfId="269" priority="203">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:F72">
-    <cfRule type="expression" dxfId="267" priority="207">
+    <cfRule type="expression" dxfId="268" priority="207">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F42">
-    <cfRule type="expression" dxfId="266" priority="242">
+    <cfRule type="expression" dxfId="267" priority="242">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J8">
-    <cfRule type="expression" dxfId="265" priority="250">
+    <cfRule type="expression" dxfId="266" priority="250">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J23">
-    <cfRule type="expression" dxfId="264" priority="259">
+    <cfRule type="expression" dxfId="265" priority="259">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J42">
-    <cfRule type="expression" dxfId="263" priority="283">
+    <cfRule type="expression" dxfId="264" priority="283">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J21">
-    <cfRule type="expression" dxfId="262" priority="302">
+    <cfRule type="expression" dxfId="263" priority="302">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="expression" dxfId="261" priority="307">
+    <cfRule type="expression" dxfId="262" priority="307">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="260" priority="309">
+    <cfRule type="expression" dxfId="261" priority="309">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J31">
-    <cfRule type="expression" dxfId="259" priority="321">
+    <cfRule type="expression" dxfId="260" priority="321">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H54">
-    <cfRule type="expression" dxfId="258" priority="336">
+    <cfRule type="expression" dxfId="259" priority="336">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:J20">
-    <cfRule type="expression" dxfId="257" priority="338">
+    <cfRule type="expression" dxfId="258" priority="338">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F34 E28:F28">
-    <cfRule type="expression" dxfId="256" priority="339">
+    <cfRule type="expression" dxfId="257" priority="339">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="255" priority="352">
+    <cfRule type="expression" dxfId="256" priority="352">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="353">
+    <cfRule type="expression" dxfId="255" priority="353">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="253" priority="366">
+    <cfRule type="expression" dxfId="254" priority="366">
       <formula>$C25="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="367">
+    <cfRule type="expression" dxfId="253" priority="367">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:H11 I12:J12">
-    <cfRule type="expression" dxfId="251" priority="369">
+    <cfRule type="expression" dxfId="252" priority="369">
       <formula>$C25="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="250" priority="377">
+    <cfRule type="expression" dxfId="251" priority="377">
       <formula>$C26="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="249" priority="378">
+    <cfRule type="expression" dxfId="250" priority="378">
       <formula>$C26="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="379">
+    <cfRule type="expression" dxfId="249" priority="379">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="247" priority="381">
+    <cfRule type="expression" dxfId="248" priority="381">
       <formula>$C20="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20 E22:F22">
-    <cfRule type="expression" dxfId="246" priority="382">
+    <cfRule type="expression" dxfId="247" priority="382">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="245" priority="389">
+    <cfRule type="expression" dxfId="246" priority="389">
       <formula>$C20="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="390">
+    <cfRule type="expression" dxfId="245" priority="390">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="243" priority="398">
+    <cfRule type="expression" dxfId="244" priority="398">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="expression" dxfId="242" priority="416">
+    <cfRule type="expression" dxfId="243" priority="416">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:J18">
-    <cfRule type="expression" dxfId="241" priority="417">
+    <cfRule type="expression" dxfId="242" priority="417">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="expression" dxfId="240" priority="430">
+    <cfRule type="expression" dxfId="241" priority="430">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="239" priority="473">
+    <cfRule type="expression" dxfId="240" priority="473">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="238" priority="53">
+    <cfRule type="expression" dxfId="239" priority="53">
       <formula>$C29="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="54">
+    <cfRule type="expression" dxfId="238" priority="54">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:B78">
-    <cfRule type="expression" dxfId="236" priority="51">
+    <cfRule type="expression" dxfId="237" priority="51">
       <formula>$C57="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="52">
+    <cfRule type="expression" dxfId="236" priority="52">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K10">
-    <cfRule type="expression" dxfId="234" priority="48">
+    <cfRule type="expression" dxfId="235" priority="48">
       <formula>$C9="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="233" priority="49">
+    <cfRule type="expression" dxfId="234" priority="49">
       <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="232" priority="50">
+    <cfRule type="expression" dxfId="233" priority="50">
       <formula>$C26="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="231" priority="45">
+    <cfRule type="expression" dxfId="232" priority="45">
       <formula>$C11="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="expression" dxfId="230" priority="46">
+    <cfRule type="expression" dxfId="231" priority="46">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="229" priority="43">
+    <cfRule type="expression" dxfId="230" priority="43">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="228" priority="44">
+    <cfRule type="expression" dxfId="229" priority="44">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="227" priority="41">
+    <cfRule type="expression" dxfId="228" priority="41">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="226" priority="38">
+    <cfRule type="expression" dxfId="227" priority="38">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="225" priority="36">
+    <cfRule type="expression" dxfId="226" priority="36">
       <formula>$C14="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="224" priority="34">
+    <cfRule type="expression" dxfId="225" priority="34">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H23">
-    <cfRule type="expression" dxfId="223" priority="508">
+    <cfRule type="expression" dxfId="224" priority="508">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="222" priority="509">
+    <cfRule type="expression" dxfId="223" priority="509">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:J39">
-    <cfRule type="expression" dxfId="221" priority="510">
+    <cfRule type="expression" dxfId="222" priority="510">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="220" priority="512">
+    <cfRule type="expression" dxfId="221" priority="512">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F19">
-    <cfRule type="expression" dxfId="219" priority="513">
+    <cfRule type="expression" dxfId="220" priority="513">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B59">
-    <cfRule type="expression" dxfId="218" priority="514">
+    <cfRule type="expression" dxfId="219" priority="514">
       <formula>$C4="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="515">
+    <cfRule type="expression" dxfId="218" priority="515">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J41">
-    <cfRule type="expression" dxfId="216" priority="516">
+    <cfRule type="expression" dxfId="217" priority="516">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H51">
-    <cfRule type="expression" dxfId="215" priority="517">
+    <cfRule type="expression" dxfId="216" priority="517">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K24">
-    <cfRule type="expression" dxfId="214" priority="520">
+    <cfRule type="expression" dxfId="215" priority="520">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:F66">
-    <cfRule type="expression" dxfId="213" priority="523">
+    <cfRule type="expression" dxfId="214" priority="523">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:F75">
-    <cfRule type="expression" dxfId="212" priority="525">
+    <cfRule type="expression" dxfId="213" priority="525">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F74">
-    <cfRule type="expression" dxfId="211" priority="526">
+    <cfRule type="expression" dxfId="212" priority="526">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:K22">
-    <cfRule type="expression" dxfId="210" priority="527">
+    <cfRule type="expression" dxfId="211" priority="527">
       <formula>$C6="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8">
-    <cfRule type="expression" dxfId="209" priority="33">
+    <cfRule type="expression" dxfId="210" priority="33">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="208" priority="528">
+    <cfRule type="expression" dxfId="209" priority="528">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="207" priority="529">
+    <cfRule type="expression" dxfId="208" priority="529">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="530">
+    <cfRule type="expression" dxfId="207" priority="530">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:B53">
-    <cfRule type="expression" dxfId="205" priority="531">
+    <cfRule type="expression" dxfId="206" priority="531">
       <formula>$C32="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="532">
+    <cfRule type="expression" dxfId="205" priority="532">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H36">
-    <cfRule type="expression" dxfId="203" priority="533">
+    <cfRule type="expression" dxfId="204" priority="533">
       <formula>$C18="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="202" priority="534">
+    <cfRule type="expression" dxfId="203" priority="534">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="201" priority="541">
+    <cfRule type="expression" dxfId="202" priority="541">
       <formula>$C37="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="542">
+    <cfRule type="expression" dxfId="201" priority="542">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:F69 K69">
-    <cfRule type="expression" dxfId="199" priority="544">
+    <cfRule type="expression" dxfId="200" priority="544">
       <formula>$C75="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="198" priority="545">
+    <cfRule type="expression" dxfId="199" priority="545">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:F73">
-    <cfRule type="expression" dxfId="197" priority="552">
+    <cfRule type="expression" dxfId="198" priority="552">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:F68">
-    <cfRule type="expression" dxfId="196" priority="554">
+    <cfRule type="expression" dxfId="197" priority="554">
       <formula>$C20="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="expression" dxfId="195" priority="556">
+    <cfRule type="expression" dxfId="196" priority="556">
       <formula>$C37="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="194" priority="600">
+    <cfRule type="expression" dxfId="195" priority="600">
       <formula>$C56="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="193" priority="10">
+    <cfRule type="expression" dxfId="194" priority="10">
       <formula>$C25="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="192" priority="20">
+    <cfRule type="expression" dxfId="193" priority="20">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="expression" dxfId="191" priority="22">
+    <cfRule type="expression" dxfId="192" priority="22">
       <formula>$C5="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73">
-    <cfRule type="expression" dxfId="190" priority="23">
+    <cfRule type="expression" dxfId="191" priority="23">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="189" priority="27">
+    <cfRule type="expression" dxfId="190" priority="27">
       <formula>$C22="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="188" priority="11">
+    <cfRule type="expression" dxfId="189" priority="11">
       <formula>$C7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="187" priority="12">
+    <cfRule type="expression" dxfId="188" priority="12">
       <formula>$C6="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="expression" dxfId="186" priority="13">
+    <cfRule type="expression" dxfId="187" priority="13">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="185" priority="14">
+    <cfRule type="expression" dxfId="186" priority="14">
       <formula>$C21="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="expression" dxfId="184" priority="17">
+    <cfRule type="expression" dxfId="185" priority="17">
       <formula>$C23="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="183" priority="18">
+    <cfRule type="expression" dxfId="184" priority="18">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="expression" dxfId="182" priority="19">
+    <cfRule type="expression" dxfId="183" priority="19">
       <formula>$C38="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K65">
-    <cfRule type="expression" dxfId="181" priority="8">
+    <cfRule type="expression" dxfId="182" priority="8">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="180" priority="9">
+    <cfRule type="expression" dxfId="181" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="179" priority="6">
+    <cfRule type="expression" dxfId="180" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="178" priority="7">
+    <cfRule type="expression" dxfId="179" priority="7">
       <formula>$C8="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H8">
-    <cfRule type="expression" dxfId="177" priority="608">
+    <cfRule type="expression" dxfId="178" priority="608">
       <formula>$C57="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="176" priority="609">
+    <cfRule type="expression" dxfId="177" priority="609">
       <formula>$C74="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="610">
+    <cfRule type="expression" dxfId="176" priority="610">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="174" priority="611">
+    <cfRule type="expression" dxfId="175" priority="611">
       <formula>$C75="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="173" priority="612">
+    <cfRule type="expression" dxfId="174" priority="612">
       <formula>$C75="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="613">
+    <cfRule type="expression" dxfId="173" priority="613">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="expression" dxfId="171" priority="614">
+    <cfRule type="expression" dxfId="172" priority="614">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K48">
-    <cfRule type="expression" dxfId="170" priority="1">
+    <cfRule type="expression" dxfId="171" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="expression" dxfId="169" priority="2">
+    <cfRule type="expression" dxfId="170" priority="2">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="168" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="167" priority="4">
+    <cfRule type="expression" dxfId="168" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:K41">
-    <cfRule type="expression" dxfId="166" priority="5">
+    <cfRule type="expression" dxfId="167" priority="5">
       <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="165" priority="617">
+    <cfRule type="expression" dxfId="166" priority="617">
       <formula>$C74="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="164" priority="621">
+    <cfRule type="expression" dxfId="165" priority="621">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="622">
+    <cfRule type="expression" dxfId="164" priority="622">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:K17">
-    <cfRule type="expression" dxfId="162" priority="623">
+    <cfRule type="expression" dxfId="163" priority="623">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H15">
-    <cfRule type="expression" dxfId="161" priority="624">
+    <cfRule type="expression" dxfId="162" priority="624">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39854,10 +39873,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB360FDB-9222-4846-8C29-B1EE5CE081EB}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39982,160 +40001,157 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>4211</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>4208</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="29" t="s">
         <v>4095</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>4062</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>2396</v>
       </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>1191</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D9" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>4065</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>4066</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>4067</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>4068</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>4066</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4070</v>
+        <v>4065</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>4066</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>4068</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>3401</v>
+      <c r="E10" s="28" t="s">
+        <v>4066</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>4072</v>
+        <v>113</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>4070</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>4071</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>4022</v>
+        <v>4068</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>3590</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>4097</v>
-      </c>
+        <v>3401</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>4074</v>
+        <v>4071</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>4022</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>4097</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>4111</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>4112</v>
+        <v>189</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>4073</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>4067</v>
+        <v>4074</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="18" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>4113</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>4114</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>4115</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>4116</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>4063</v>
@@ -40144,91 +40160,91 @@
         <v>4069</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B17" s="28" t="s">
         <v>4125</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>4022</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>4193</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>4069</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>1258</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>4117</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>4118</v>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>4063</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>4119</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>4086</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>4083</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>4169</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>4085</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>4084</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>4071</v>
@@ -40243,10 +40259,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>4090</v>
+        <v>4084</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>4071</v>
@@ -40261,10 +40277,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>4071</v>
@@ -40279,10 +40295,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>4087</v>
+        <v>4091</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>4088</v>
+        <v>4092</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>4071</v>
@@ -40296,89 +40312,89 @@
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="30" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>4131</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B25" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D25" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E25" s="33" t="s">
         <v>3084</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>4082</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D26" s="28" t="s">
         <v>4068</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4132</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>4069</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>3000</v>
       </c>
-      <c r="G26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>4100</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>4093</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>4067</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>4170</v>
-      </c>
-      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4094</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>4067</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -40389,48 +40405,51 @@
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>4170</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>4133</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B30" s="30" t="s">
         <v>4098</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>4063</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D30" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>1113</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>4078</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>4079</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>4022</v>
-      </c>
-      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>4063</v>
@@ -40441,14 +40460,14 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>4030</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4102</v>
+      <c r="A32" s="25" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>4081</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>4071</v>
+        <v>4063</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>4022</v>
@@ -40457,10 +40476,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B33" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>4071</v>
@@ -40472,10 +40491,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B34" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>4071</v>
@@ -40487,10 +40506,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>4033</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>4105</v>
+        <v>4032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4104</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>4071</v>
@@ -40502,10 +40521,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4107</v>
+        <v>4033</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>4105</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>4071</v>
@@ -40517,10 +40536,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B37" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>4071</v>
@@ -40532,10 +40551,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>4026</v>
+        <v>1466</v>
       </c>
       <c r="B38" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>4071</v>
@@ -40547,10 +40566,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>4109</v>
+        <v>4026</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4110</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>4071</v>
@@ -40562,10 +40581,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4108</v>
+        <v>101</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>4109</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>4071</v>
@@ -40576,29 +40595,26 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>4134</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B42" s="30" t="s">
         <v>1465</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>4069</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4135</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>4031</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>4063</v>
@@ -40612,11 +40628,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>4136</v>
+      <c r="A43" t="s">
+        <v>4135</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>4063</v>
@@ -40631,10 +40647,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>4063</v>
@@ -40648,11 +40664,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>4139</v>
+      <c r="A45" s="31" t="s">
+        <v>4137</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1464</v>
+        <v>4033</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>4063</v>
@@ -40666,11 +40682,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4138</v>
+      <c r="A46" s="28" t="s">
+        <v>4139</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>4063</v>
@@ -40685,10 +40701,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>4026</v>
+        <v>1466</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>4063</v>
@@ -40702,11 +40718,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>4141</v>
+      <c r="A48" t="s">
+        <v>4140</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>101</v>
+        <v>4026</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>4063</v>
@@ -40720,11 +40736,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>4142</v>
+      <c r="A49" s="28" t="s">
+        <v>4141</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>4063</v>
@@ -40738,95 +40754,95 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="A50" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="30" t="s">
         <v>1590</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="18" t="s">
         <v>4126</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>4143</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B52" s="30" t="s">
         <v>1590</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D52" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16" t="s">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
         <v>1591</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>4127</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D53" s="28" t="s">
         <v>4022</v>
       </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>4144</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>1591</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C54" s="28" t="s">
         <v>4063</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D54" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>4194</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>3001</v>
-      </c>
-      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>4071</v>
@@ -40835,37 +40851,34 @@
         <v>4022</v>
       </c>
       <c r="E55" s="18" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>3078</v>
       </c>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
-        <v>4197</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>3001</v>
-      </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
-        <v>4099</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>4063</v>
@@ -40874,7 +40887,7 @@
         <v>4069</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>3078</v>
+        <v>3001</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
@@ -40882,29 +40895,32 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>4202</v>
+      <c r="A58" s="16" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>4191</v>
+        <v>4063</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>4022</v>
+        <v>4069</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>3154</v>
+        <v>3078</v>
       </c>
       <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>4099</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>4191</v>
@@ -40913,37 +40929,34 @@
         <v>4022</v>
       </c>
       <c r="E59" s="18" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="30" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>3155</v>
       </c>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>4204</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>2567</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>3154</v>
-      </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="16" t="s">
-        <v>4099</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>4063</v>
@@ -40952,7 +40965,7 @@
         <v>4069</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16" t="s">
@@ -40960,67 +40973,70 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="16" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="30" t="s">
         <v>4200</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B63" s="28" t="s">
         <v>4198</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C63" s="28" t="s">
         <v>4071</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D63" s="28" t="s">
         <v>4022</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>4201</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>4199</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>4200</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>4069</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>4201</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>4201</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
-        <v>4039</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>4183</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>4191</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>3071</v>
-      </c>
-      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>4191</v>
@@ -41029,36 +41045,34 @@
         <v>4022</v>
       </c>
       <c r="E65" s="18" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="30" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>3072</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
         <v>4189</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B67" s="30" t="s">
         <v>1580</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>3071</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>4190</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>4184</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>4063</v>
@@ -41067,18 +41081,18 @@
         <v>4069</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>1682</v>
+        <v>4184</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>4063</v>
@@ -41087,19 +41101,18 @@
         <v>4069</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>2165</v>
-      </c>
-      <c r="F68" s="16"/>
+        <v>3072</v>
+      </c>
       <c r="G68" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>4063</v>
@@ -41108,19 +41121,19 @@
         <v>4069</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>1582</v>
+        <v>1681</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>4063</v>
@@ -41129,7 +41142,7 @@
         <v>4069</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>3073</v>
+        <v>2164</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
@@ -41138,10 +41151,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>4044</v>
+        <v>1582</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>4063</v>
@@ -41150,7 +41163,7 @@
         <v>4069</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>3357</v>
+        <v>3073</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16" t="s">
@@ -41159,10 +41172,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>4145</v>
+        <v>4185</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>2520</v>
+        <v>4044</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>4063</v>
@@ -41171,20 +41184,19 @@
         <v>4069</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>3092</v>
+        <v>3357</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>4063</v>
@@ -41193,7 +41205,7 @@
         <v>4069</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16" t="s">
@@ -41203,10 +41215,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>4063</v>
@@ -41215,7 +41227,7 @@
         <v>4069</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
@@ -41224,11 +41236,11 @@
       <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>4172</v>
+      <c r="A75" s="28" t="s">
+        <v>4147</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>1609</v>
+        <v>2524</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>4063</v>
@@ -41237,7 +41249,7 @@
         <v>4069</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>3125</v>
+        <v>3096</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16" t="s">
@@ -41247,10 +41259,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>4063</v>
@@ -41259,7 +41271,7 @@
         <v>4069</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
@@ -41269,10 +41281,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>4148</v>
+        <v>4173</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>4063</v>
@@ -41281,7 +41293,7 @@
         <v>4069</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16" t="s">
@@ -41290,11 +41302,11 @@
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>4174</v>
+      <c r="A78" s="18" t="s">
+        <v>4148</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>4063</v>
@@ -41303,7 +41315,7 @@
         <v>4069</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
@@ -41313,10 +41325,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>4063</v>
@@ -41325,7 +41337,7 @@
         <v>4069</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16" t="s">
@@ -41335,10 +41347,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>4063</v>
@@ -41347,7 +41359,7 @@
         <v>4069</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
@@ -41357,10 +41369,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>4149</v>
+        <v>4176</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>2570</v>
+        <v>1615</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>4063</v>
@@ -41369,7 +41381,7 @@
         <v>4069</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>3158</v>
+        <v>3131</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16" t="s">
@@ -41379,10 +41391,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>4177</v>
+        <v>4149</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>4054</v>
+        <v>2570</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>4063</v>
@@ -41391,19 +41403,20 @@
         <v>4069</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>2103</v>
+        <v>3158</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
         <v>4099</v>
       </c>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
-        <v>4178</v>
+      <c r="A83" s="28" t="s">
+        <v>4177</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>4063</v>
@@ -41412,20 +41425,19 @@
         <v>4069</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>2070</v>
+        <v>2103</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>4128</v>
+        <v>4055</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>4063</v>
@@ -41434,21 +41446,20 @@
         <v>4069</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
         <v>4099</v>
       </c>
       <c r="H84" s="16"/>
-      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>1594</v>
+        <v>4128</v>
       </c>
       <c r="C85" s="28" t="s">
         <v>4063</v>
@@ -41457,7 +41468,7 @@
         <v>4069</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16" t="s">
@@ -41468,10 +41479,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>4150</v>
+        <v>4180</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>4053</v>
+        <v>1594</v>
       </c>
       <c r="C86" s="28" t="s">
         <v>4063</v>
@@ -41480,7 +41491,7 @@
         <v>4069</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>2100</v>
+        <v>2072</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
@@ -41491,10 +41502,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>4129</v>
+        <v>4053</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>4063</v>
@@ -41503,7 +41514,7 @@
         <v>4069</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16" t="s">
@@ -41514,10 +41525,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>4181</v>
+        <v>4151</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>1680</v>
+        <v>4129</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>4063</v>
@@ -41526,7 +41537,7 @@
         <v>4069</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>2163</v>
+        <v>2101</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16" t="s">
@@ -41535,12 +41546,12 @@
       <c r="H88" s="16"/>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>4152</v>
+        <v>4181</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>1619</v>
+        <v>1680</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>4063</v>
@@ -41549,7 +41560,7 @@
         <v>4069</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>2102</v>
+        <v>2163</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16" t="s">
@@ -41558,12 +41569,12 @@
       <c r="H89" s="16"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>106</v>
+        <v>1619</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>4063</v>
@@ -41572,7 +41583,7 @@
         <v>4069</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>1117</v>
+        <v>2102</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16" t="s">
@@ -41583,10 +41594,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>4051</v>
+        <v>106</v>
       </c>
       <c r="C91" s="28" t="s">
         <v>4063</v>
@@ -41595,19 +41606,21 @@
         <v>4069</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
         <v>4099</v>
       </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>4059</v>
+        <v>4051</v>
       </c>
       <c r="C92" s="28" t="s">
         <v>4063</v>
@@ -41616,20 +41629,19 @@
         <v>4069</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
         <v>4099</v>
       </c>
-      <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>4063</v>
@@ -41638,7 +41650,7 @@
         <v>4069</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16" t="s">
@@ -41648,10 +41660,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>4049</v>
+        <v>4060</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>4063</v>
@@ -41660,7 +41672,7 @@
         <v>4069</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16" t="s">
@@ -41670,10 +41682,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="C95" s="28" t="s">
         <v>4063</v>
@@ -41682,7 +41694,7 @@
         <v>4069</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16" t="s">
@@ -41692,10 +41704,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>4063</v>
@@ -41704,7 +41716,7 @@
         <v>4069</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16" t="s">
@@ -41714,10 +41726,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="C97" s="28" t="s">
         <v>4063</v>
@@ -41726,7 +41738,7 @@
         <v>4069</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16" t="s">
@@ -41735,11 +41747,11 @@
       <c r="J97" s="16"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
-        <v>4161</v>
+      <c r="A98" s="18" t="s">
+        <v>4160</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>4052</v>
+        <v>4047</v>
       </c>
       <c r="C98" s="28" t="s">
         <v>4063</v>
@@ -41748,7 +41760,7 @@
         <v>4069</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16" t="s">
@@ -41757,11 +41769,11 @@
       <c r="J98" s="16"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
-        <v>4162</v>
+      <c r="A99" s="28" t="s">
+        <v>4161</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>4046</v>
+        <v>4052</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>4063</v>
@@ -41770,7 +41782,7 @@
         <v>4069</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16" t="s">
@@ -41780,10 +41792,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>108</v>
+        <v>4046</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>4063</v>
@@ -41792,7 +41804,7 @@
         <v>4069</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>334</v>
+        <v>1108</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16" t="s">
@@ -41802,10 +41814,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
-        <v>4207</v>
+        <v>4163</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>4206</v>
+        <v>108</v>
       </c>
       <c r="C101" s="28" t="s">
         <v>4063</v>
@@ -41814,7 +41826,7 @@
         <v>4069</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16" t="s">
@@ -41823,11 +41835,11 @@
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
-        <v>4164</v>
+      <c r="A102" s="18" t="s">
+        <v>4207</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>4043</v>
+        <v>4206</v>
       </c>
       <c r="C102" s="28" t="s">
         <v>4063</v>
@@ -41835,8 +41847,8 @@
       <c r="D102" s="28" t="s">
         <v>4069</v>
       </c>
-      <c r="E102" s="19" t="s">
-        <v>3881</v>
+      <c r="E102" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16" t="s">
@@ -41846,10 +41858,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>4058</v>
+        <v>4164</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>4043</v>
       </c>
       <c r="C103" s="28" t="s">
         <v>4063</v>
@@ -41858,798 +41870,825 @@
         <v>4069</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16" t="s">
         <v>4099</v>
       </c>
+      <c r="J103" s="16"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J104" s="21"/>
+      <c r="A104" s="19" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:B6 A19:A23 A30:A31 A24:B24 B25:B26 B12:B15 B18 A2:A4">
-    <cfRule type="expression" dxfId="160" priority="155">
+  <conditionalFormatting sqref="A20:A24 A31:A32 A25:B25 B26:B27 B13:B16 B19 A2:A4 A5:B7">
+    <cfRule type="expression" dxfId="161" priority="155">
       <formula>$C2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A57">
-    <cfRule type="expression" dxfId="159" priority="188">
-      <formula>$C8="Y"</formula>
+  <conditionalFormatting sqref="A56:A58">
+    <cfRule type="expression" dxfId="160" priority="188">
+      <formula>$C9="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="158" priority="186">
-      <formula>$C46="Y"</formula>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="expression" dxfId="159" priority="186">
+      <formula>$C47="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="157" priority="182">
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="158" priority="182">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
-    <cfRule type="expression" dxfId="156" priority="183">
-      <formula>$C38="Y"</formula>
+  <conditionalFormatting sqref="A34:A36">
+    <cfRule type="expression" dxfId="157" priority="183">
+      <formula>$C39="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39 H76:H81 E76:E81">
-    <cfRule type="expression" dxfId="155" priority="180">
+  <conditionalFormatting sqref="A40 H77:H82 E77:E82">
+    <cfRule type="expression" dxfId="156" priority="180">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="154" priority="181">
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="155" priority="181">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="153" priority="179">
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="154" priority="179">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A51">
-    <cfRule type="expression" dxfId="152" priority="178">
-      <formula>$C42="Y"</formula>
+  <conditionalFormatting sqref="A51:A52">
+    <cfRule type="expression" dxfId="153" priority="178">
+      <formula>$C43="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="151" priority="177">
-      <formula>$C34="Y"</formula>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="expression" dxfId="152" priority="177">
+      <formula>$C35="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B61">
-    <cfRule type="expression" dxfId="150" priority="176">
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="expression" dxfId="151" priority="176">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="149" priority="190">
-      <formula>$C11="Y"</formula>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="150" priority="190">
+      <formula>$C12="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A25 A27:A29">
-    <cfRule type="expression" dxfId="148" priority="175">
+  <conditionalFormatting sqref="A9:A26 A28:A30">
+    <cfRule type="expression" dxfId="149" priority="175">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="147" priority="171">
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="148" priority="171">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="146" priority="172">
-      <formula>$C8="Y"</formula>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" dxfId="147" priority="172">
+      <formula>$C9="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="146" priority="173">
+      <formula>$C12="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="145" priority="173">
-      <formula>$C11="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="144" priority="174">
+    <cfRule type="expression" dxfId="145" priority="174">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B89">
-    <cfRule type="expression" dxfId="143" priority="169">
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="expression" dxfId="144" priority="169">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="142" priority="170">
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="143" priority="170">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="141" priority="167">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="142" priority="167">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84 E99">
-    <cfRule type="expression" dxfId="140" priority="168">
-      <formula>$C12="Y"</formula>
+  <conditionalFormatting sqref="B85 E100">
+    <cfRule type="expression" dxfId="141" priority="168">
+      <formula>$C13="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:B81">
-    <cfRule type="expression" dxfId="139" priority="162">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72 H72 E72">
-    <cfRule type="expression" dxfId="138" priority="163">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 H75 E75">
-    <cfRule type="expression" dxfId="137" priority="164">
+  <conditionalFormatting sqref="B77:B82">
+    <cfRule type="expression" dxfId="140" priority="162">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73 H73 E73">
-    <cfRule type="expression" dxfId="136" priority="165">
+    <cfRule type="expression" dxfId="139" priority="163">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="135" priority="166">
-      <formula>$C7="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="134" priority="193">
-      <formula>$C89="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="133" priority="194">
+  <conditionalFormatting sqref="B76 H76 E76">
+    <cfRule type="expression" dxfId="138" priority="164">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7 B27:B28">
-    <cfRule type="expression" dxfId="132" priority="158">
-      <formula>$C7="Y"</formula>
+  <conditionalFormatting sqref="B74 H74 E74">
+    <cfRule type="expression" dxfId="137" priority="165">
+      <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="159">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" dxfId="136" priority="166">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="135" priority="193">
+      <formula>$C90="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="134" priority="194">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8 B28:B29">
+    <cfRule type="expression" dxfId="133" priority="158">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="159">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="130" priority="157">
-      <formula>$C8="Y"</formula>
+  <conditionalFormatting sqref="B9:B11">
+    <cfRule type="expression" dxfId="131" priority="157">
+      <formula>$C9="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="129" priority="156">
-      <formula>$C11="Y"</formula>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="130" priority="156">
+      <formula>$C12="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="128" priority="152">
-      <formula>$C33="Y"</formula>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="expression" dxfId="129" priority="152">
+      <formula>$C34="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="127" priority="770">
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="128" priority="770">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="126" priority="771">
-      <formula>$C33="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="125" priority="141">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="127" priority="771">
       <formula>$C34="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="124" priority="138">
-      <formula>$C55="Y"</formula>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="126" priority="141">
+      <formula>$C35="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="123" priority="136">
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="125" priority="138">
+      <formula>$C56="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="124" priority="136">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B44">
-    <cfRule type="expression" dxfId="122" priority="137">
-      <formula>$C47="Y"</formula>
+  <conditionalFormatting sqref="B43:B45">
+    <cfRule type="expression" dxfId="123" priority="137">
+      <formula>$C48="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="121" priority="134">
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="122" priority="134">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="120" priority="135">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="119" priority="139">
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="121" priority="135">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="118" priority="140">
+    <cfRule type="expression" dxfId="120" priority="139">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="117" priority="133">
-      <formula>$C55="Y"</formula>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="119" priority="140">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="116" priority="132">
-      <formula>$C42="Y"</formula>
+    <cfRule type="expression" dxfId="118" priority="133">
+      <formula>$C56="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" dxfId="117" priority="132">
+      <formula>$C43="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="116" priority="131">
+      <formula>$C39="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="expression" dxfId="115" priority="122">
+      <formula>$C50="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="114" priority="130">
+      <formula>$C34="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="113" priority="129">
+      <formula>$C35="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="112" priority="128">
+      <formula>$C33="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="115" priority="131">
+    <cfRule type="expression" dxfId="111" priority="127">
       <formula>$C38="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="114" priority="122">
-      <formula>$C49="Y"</formula>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="110" priority="126">
+      <formula>$C47="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="113" priority="130">
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="109" priority="125">
+      <formula>$C37="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="108" priority="124">
+      <formula>$C41="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="expression" dxfId="107" priority="123">
+      <formula>$C48="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="106" priority="773">
       <formula>$C33="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="112" priority="129">
-      <formula>$C34="Y"</formula>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="105" priority="121">
+      <formula>$C27="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="111" priority="128">
-      <formula>$C32="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="110" priority="127">
-      <formula>$C37="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="109" priority="126">
-      <formula>$C46="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="108" priority="125">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="107" priority="124">
-      <formula>$C40="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="106" priority="123">
-      <formula>$C47="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="105" priority="773">
-      <formula>$C32="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="104" priority="121">
-      <formula>$C26="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="103" priority="120">
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="104" priority="120">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="102" priority="119">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="101" priority="118">
+  <conditionalFormatting sqref="A18">
+    <cfRule type="expression" dxfId="103" priority="119">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="100" priority="117">
-      <formula>$C43="Y"</formula>
+    <cfRule type="expression" dxfId="102" priority="118">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="99" priority="116">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="101" priority="117">
+      <formula>$C44="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="100" priority="116">
+      <formula>$C46="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="99" priority="115">
+      <formula>$C46="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="98" priority="114">
       <formula>$C45="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="98" priority="115">
-      <formula>$C45="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="97" priority="114">
-      <formula>$C44="Y"</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="97" priority="107">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="96" priority="107">
+    <cfRule type="expression" dxfId="96" priority="108">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="95" priority="108">
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="95" priority="106">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="94" priority="106">
+  <conditionalFormatting sqref="H89:I91">
+    <cfRule type="expression" dxfId="94" priority="102">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:I90">
-    <cfRule type="expression" dxfId="93" priority="102">
+  <conditionalFormatting sqref="H87:I88">
+    <cfRule type="expression" dxfId="93" priority="103">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86:I87">
-    <cfRule type="expression" dxfId="92" priority="103">
+  <conditionalFormatting sqref="H86:I86">
+    <cfRule type="expression" dxfId="92" priority="104">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:I85">
-    <cfRule type="expression" dxfId="91" priority="104">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84:I84 H83 A83">
-    <cfRule type="expression" dxfId="90" priority="105">
-      <formula>$C38="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="89" priority="99">
-      <formula>$C40="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="88" priority="100">
+  <conditionalFormatting sqref="H85:I85 H84 A84">
+    <cfRule type="expression" dxfId="91" priority="105">
       <formula>$C39="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="87" priority="98">
-      <formula>#REF!="Y"</formula>
+    <cfRule type="expression" dxfId="90" priority="99">
+      <formula>$C41="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="expression" dxfId="89" priority="100">
+      <formula>$C40="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="86" priority="97">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="85" priority="96">
+    <cfRule type="expression" dxfId="87" priority="97">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="84" priority="95">
+    <cfRule type="expression" dxfId="86" priority="96">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J98 E96 J93 E91">
-    <cfRule type="expression" dxfId="83" priority="85">
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="85" priority="95">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92 A90">
-    <cfRule type="expression" dxfId="82" priority="86">
+  <conditionalFormatting sqref="J99 E97 J94 E92">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="81" priority="84">
+  <conditionalFormatting sqref="J93 A91">
+    <cfRule type="expression" dxfId="83" priority="86">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92 E92">
-    <cfRule type="expression" dxfId="80" priority="83">
-      <formula>$C42="Y"</formula>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="expression" dxfId="82" priority="84">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93 E93">
+    <cfRule type="expression" dxfId="81" priority="83">
+      <formula>$C43="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95 E95">
+    <cfRule type="expression" dxfId="80" priority="81">
+      <formula>$C60="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="expression" dxfId="79" priority="80">
+      <formula>$C63="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98 E98">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>$C45="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>$C28="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="expression" dxfId="75" priority="71">
+      <formula>$C83="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="72">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103 E103">
+    <cfRule type="expression" dxfId="73" priority="69">
+      <formula>$C83="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="70">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:B102">
+    <cfRule type="expression" dxfId="71" priority="774">
+      <formula>$J94="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="70" priority="775">
+      <formula>$J93="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="expression" dxfId="69" priority="779">
+      <formula>$C28="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101">
+    <cfRule type="expression" dxfId="68" priority="781">
+      <formula>$C30="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="expression" dxfId="67" priority="785">
+      <formula>$J102="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98">
+    <cfRule type="expression" dxfId="66" priority="787">
+      <formula>$J101="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100">
+    <cfRule type="expression" dxfId="65" priority="789">
+      <formula>$C45="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="expression" dxfId="64" priority="793">
+      <formula>$C60="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94 E94">
-    <cfRule type="expression" dxfId="79" priority="81">
-      <formula>$C59="Y"</formula>
+    <cfRule type="expression" dxfId="63" priority="794">
+      <formula>$J102="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="78" priority="80">
-      <formula>$C62="Y"</formula>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="expression" dxfId="62" priority="795">
+      <formula>$J103="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="77" priority="79">
+  <conditionalFormatting sqref="A101 E101">
+    <cfRule type="expression" dxfId="61" priority="797">
+      <formula>$J103="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="60" priority="811">
+      <formula>$C30="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="expression" dxfId="59" priority="815">
+      <formula>$J101="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E90 E83">
+    <cfRule type="expression" dxfId="58" priority="65">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97 E97">
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>$C44="Y"</formula>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="expression" dxfId="57" priority="66">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="75" priority="77">
-      <formula>$C27="Y"</formula>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="56" priority="67">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
-    <cfRule type="expression" dxfId="74" priority="71">
-      <formula>$C82="Y"</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="55" priority="68">
+      <formula>$C37="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="72">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="54" priority="64">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75 E75">
+    <cfRule type="expression" dxfId="53" priority="816">
+      <formula>$C36="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="52" priority="58">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="51" priority="818">
+      <formula>$C2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="expression" dxfId="50" priority="57">
+      <formula>$C9="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="47" priority="52">
+      <formula>$C14="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="53">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="45" priority="50">
+      <formula>$C15="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="51">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula>$C16="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="49">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="41" priority="46">
+      <formula>$C19="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="47">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="39" priority="45">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="37" priority="43">
+      <formula>$C8="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="36" priority="41">
+      <formula>$C28="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="35" priority="40">
+      <formula>$C29="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="34" priority="39">
+      <formula>$C19="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="33" priority="38">
+      <formula>$C20="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="32" priority="37">
+      <formula>$C21="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="29" priority="32">
+      <formula>$C108="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="28" priority="31">
+      <formula>$C109="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E70">
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>$C72="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="expression" dxfId="26" priority="819">
+      <formula>$C43="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$C107="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="22" priority="827">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>$C60="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>"$C3='Y'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>$C42="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102 E102">
-    <cfRule type="expression" dxfId="72" priority="69">
-      <formula>$C82="Y"</formula>
+    <cfRule type="expression" dxfId="17" priority="830">
+      <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="70">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$C46="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="15" priority="21">
+      <formula>$C37="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>$C11="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>$C37="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$C48="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>$C39="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B101">
-    <cfRule type="expression" dxfId="70" priority="774">
-      <formula>$J93="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="69" priority="775">
-      <formula>$J92="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="68" priority="779">
-      <formula>$C27="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="expression" dxfId="67" priority="781">
-      <formula>$C29="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="expression" dxfId="66" priority="785">
-      <formula>$J101="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
-    <cfRule type="expression" dxfId="65" priority="787">
-      <formula>$J100="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99">
-    <cfRule type="expression" dxfId="64" priority="789">
-      <formula>$C44="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="expression" dxfId="63" priority="793">
-      <formula>$C59="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93 E93">
-    <cfRule type="expression" dxfId="62" priority="794">
-      <formula>$J101="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="61" priority="795">
-      <formula>$J102="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100 E100">
-    <cfRule type="expression" dxfId="60" priority="797">
-      <formula>$J102="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="59" priority="811">
-      <formula>$C29="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="58" priority="815">
-      <formula>$J100="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88:E89 E82">
-    <cfRule type="expression" dxfId="57" priority="65">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>#REF!="Y"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="expression" dxfId="56" priority="66">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="55" priority="67">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="54" priority="68">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="53" priority="64">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74 E74">
-    <cfRule type="expression" dxfId="52" priority="816">
-      <formula>$C35="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="51" priority="58">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="50" priority="818">
-      <formula>$C2="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>$C8="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="48" priority="55">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="47" priority="54">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="46" priority="52">
-      <formula>$C13="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>"$C3='Y'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="44" priority="50">
-      <formula>$C14="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>$C15="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>$C18="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="47">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="38" priority="45">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="37" priority="44">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E23">
-    <cfRule type="expression" dxfId="36" priority="43">
-      <formula>$C3="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="35" priority="41">
-      <formula>$C27="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="34" priority="40">
-      <formula>$C28="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$C18="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="32" priority="38">
-      <formula>$C19="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>$C20="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$C107="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$C108="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E69">
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$C71="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="expression" dxfId="25" priority="819">
-      <formula>$C42="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>$C106="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="21" priority="827">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$C59="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$C41="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101 E101">
-    <cfRule type="expression" dxfId="16" priority="830">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>$C45="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>$C10="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$C36="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>$C47="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>$C38="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>"$C3='Y'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="E59:E60">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A61">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:A60">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E23">
+    <cfRule type="expression" dxfId="0" priority="831">
+      <formula>$C3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
